--- a/2021.xlsx
+++ b/2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github.com\liws\English\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D83527B-399C-44AF-996F-41756F00AD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AF0E79-4F86-4940-B6E8-0B1351F89B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19860" yWindow="21045" windowWidth="23385" windowHeight="11160" firstSheet="3" activeTab="10" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
+    <workbookView xWindow="18060" yWindow="18765" windowWidth="23385" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
   <sheets>
     <sheet name="计划表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8548" uniqueCount="6273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8608" uniqueCount="6301">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24674,6 +24674,118 @@
   </si>
   <si>
     <t>rat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picnic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prominent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abandon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ban</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boundary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>husband</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abatement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approximately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error prone questions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mock examination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code annotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instead of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flat is better than nested</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control flow statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enclosed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throw exception</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -30922,7 +31034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AAD495-8EA3-4C6F-869D-64FB66D50D2A}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
@@ -32544,10 +32656,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9A5899-4439-43AE-BF77-0C4A54A1BB24}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32739,9 +32851,230 @@
         <v>6256</v>
       </c>
     </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6273</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6274</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6275</v>
+      </c>
+      <c r="F3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3548</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2121</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6277</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6276</v>
+      </c>
+      <c r="B4" t="s">
+        <v>906</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6284</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6278</v>
+      </c>
+      <c r="J4" t="s">
+        <v>349</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6279</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6296</v>
+      </c>
+      <c r="K5" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>6285</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6280</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6297</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>6286</v>
+      </c>
+      <c r="I7" t="s">
+        <v>842</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6298</v>
+      </c>
+      <c r="K7" t="s">
+        <v>6287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>5041</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6281</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6299</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>389</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6282</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3348</v>
+      </c>
+      <c r="K9" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>2310</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4927</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>6283</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6300</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>4129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>5709</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>3223</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>2300</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6291</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>6292</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>6293</v>
+      </c>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>6294</v>
+      </c>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>6295</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AF0E79-4F86-4940-B6E8-0B1351F89B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813918E1-4FE7-471E-A453-B480C13542EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18060" yWindow="18765" windowWidth="23385" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
+    <workbookView xWindow="17490" yWindow="17370" windowWidth="23385" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
   <sheets>
     <sheet name="计划表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8608" uniqueCount="6301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8623" uniqueCount="6306">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24786,6 +24786,26 @@
   </si>
   <si>
     <t>throw exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regular expression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regard as</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -31034,7 +31054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AAD495-8EA3-4C6F-869D-64FB66D50D2A}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
@@ -32659,7 +32679,7 @@
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32885,6 +32905,9 @@
       <c r="K3" t="s">
         <v>5889</v>
       </c>
+      <c r="L3" t="s">
+        <v>6301</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -32893,6 +32916,21 @@
       <c r="B4" t="s">
         <v>906</v>
       </c>
+      <c r="C4" t="s">
+        <v>6276</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6284</v>
+      </c>
+      <c r="E4" t="s">
+        <v>842</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4129</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5709</v>
+      </c>
       <c r="H4" t="s">
         <v>6284</v>
       </c>
@@ -32905,8 +32943,20 @@
       <c r="K4" t="s">
         <v>1093</v>
       </c>
+      <c r="L4" t="s">
+        <v>6302</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6301</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6303</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3223</v>
+      </c>
       <c r="H5" t="s">
         <v>190</v>
       </c>
@@ -32918,6 +32968,9 @@
       </c>
       <c r="K5" t="s">
         <v>879</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6303</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -32933,6 +32986,9 @@
       <c r="K6" t="s">
         <v>1569</v>
       </c>
+      <c r="L6" t="s">
+        <v>6304</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
@@ -32947,6 +33003,9 @@
       <c r="K7" t="s">
         <v>6287</v>
       </c>
+      <c r="L7" t="s">
+        <v>6305</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
@@ -32961,6 +33020,9 @@
       <c r="K8" t="s">
         <v>1744</v>
       </c>
+      <c r="L8" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
@@ -32974,6 +33036,9 @@
       </c>
       <c r="K9" t="s">
         <v>920</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4779</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813918E1-4FE7-471E-A453-B480C13542EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A76C068-0629-4B63-B60B-AFC654B460D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17490" yWindow="17370" windowWidth="23385" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
+    <workbookView xWindow="22545" yWindow="10770" windowWidth="23385" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
   <sheets>
     <sheet name="计划表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8623" uniqueCount="6306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8639" uniqueCount="6311">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24806,6 +24806,26 @@
   </si>
   <si>
     <t>regard as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper-right conner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop-down menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canvas</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -31054,8 +31074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AAD495-8EA3-4C6F-869D-64FB66D50D2A}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32679,7 +32699,7 @@
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="F13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32908,6 +32928,9 @@
       <c r="L3" t="s">
         <v>6301</v>
       </c>
+      <c r="M3" t="s">
+        <v>6306</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -32946,6 +32969,9 @@
       <c r="L4" t="s">
         <v>6302</v>
       </c>
+      <c r="M4" t="s">
+        <v>6307</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -32954,6 +32980,9 @@
       <c r="B5" t="s">
         <v>6303</v>
       </c>
+      <c r="C5" t="s">
+        <v>1942</v>
+      </c>
       <c r="G5" t="s">
         <v>3223</v>
       </c>
@@ -32971,6 +33000,9 @@
       </c>
       <c r="L5" t="s">
         <v>6303</v>
+      </c>
+      <c r="M5" t="s">
+        <v>6308</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -32989,6 +33021,9 @@
       <c r="L6" t="s">
         <v>6304</v>
       </c>
+      <c r="M6" t="s">
+        <v>5465</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
@@ -33006,6 +33041,9 @@
       <c r="L7" t="s">
         <v>6305</v>
       </c>
+      <c r="M7" t="s">
+        <v>6309</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
@@ -33023,6 +33061,9 @@
       <c r="L8" t="s">
         <v>362</v>
       </c>
+      <c r="M8" t="s">
+        <v>6296</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
@@ -33040,6 +33081,9 @@
       <c r="L9" t="s">
         <v>4779</v>
       </c>
+      <c r="M9" t="s">
+        <v>3571</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
@@ -33054,6 +33098,12 @@
       <c r="K10" t="s">
         <v>6288</v>
       </c>
+      <c r="L10" t="s">
+        <v>4184</v>
+      </c>
+      <c r="M10" t="s">
+        <v>6310</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
@@ -33065,6 +33115,12 @@
       <c r="K11" t="s">
         <v>6289</v>
       </c>
+      <c r="L11" t="s">
+        <v>4185</v>
+      </c>
+      <c r="M11" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
@@ -33073,6 +33129,9 @@
       <c r="K12" t="s">
         <v>6290</v>
       </c>
+      <c r="M12" t="s">
+        <v>1940</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
@@ -33081,6 +33140,9 @@
       <c r="K13" t="s">
         <v>1574</v>
       </c>
+      <c r="M13" t="s">
+        <v>1941</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
@@ -33089,6 +33151,9 @@
       <c r="K14" t="s">
         <v>140</v>
       </c>
+      <c r="M14" t="s">
+        <v>6028</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
@@ -33096,6 +33161,9 @@
       </c>
       <c r="K15" t="s">
         <v>3571</v>
+      </c>
+      <c r="M15" t="s">
+        <v>6044</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A76C068-0629-4B63-B60B-AFC654B460D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E364F4B3-A398-4DC1-BF17-552735880E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22545" yWindow="10770" windowWidth="23385" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
+    <workbookView xWindow="-15210" yWindow="9675" windowWidth="9150" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
   <sheets>
     <sheet name="计划表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8639" uniqueCount="6311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8654" uniqueCount="6315">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24826,6 +24826,22 @@
   </si>
   <si>
     <t>canvas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mosaic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>division</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -32698,8 +32714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9A5899-4439-43AE-BF77-0C4A54A1BB24}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G13"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32931,6 +32947,12 @@
       <c r="M3" t="s">
         <v>6306</v>
       </c>
+      <c r="P3" t="s">
+        <v>5008</v>
+      </c>
+      <c r="R3" t="s">
+        <v>5008</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -32972,6 +32994,12 @@
       <c r="M4" t="s">
         <v>6307</v>
       </c>
+      <c r="P4" t="s">
+        <v>6159</v>
+      </c>
+      <c r="R4" t="s">
+        <v>6311</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -33004,6 +33032,12 @@
       <c r="M5" t="s">
         <v>6308</v>
       </c>
+      <c r="P5" t="s">
+        <v>6314</v>
+      </c>
+      <c r="R5" t="s">
+        <v>6312</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
@@ -33024,6 +33058,12 @@
       <c r="M6" t="s">
         <v>5465</v>
       </c>
+      <c r="P6" t="s">
+        <v>6310</v>
+      </c>
+      <c r="R6" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
@@ -33044,6 +33084,9 @@
       <c r="M7" t="s">
         <v>6309</v>
       </c>
+      <c r="R7" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
@@ -33064,6 +33107,9 @@
       <c r="M8" t="s">
         <v>6296</v>
       </c>
+      <c r="R8" t="s">
+        <v>6313</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
@@ -33084,6 +33130,9 @@
       <c r="M9" t="s">
         <v>3571</v>
       </c>
+      <c r="R9" t="s">
+        <v>1161</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
@@ -33104,6 +33153,9 @@
       <c r="M10" t="s">
         <v>6310</v>
       </c>
+      <c r="R10" t="s">
+        <v>2058</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
@@ -33121,6 +33173,9 @@
       <c r="M11" t="s">
         <v>385</v>
       </c>
+      <c r="R11" t="s">
+        <v>6159</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
@@ -33132,6 +33187,9 @@
       <c r="M12" t="s">
         <v>1940</v>
       </c>
+      <c r="R12" t="s">
+        <v>6314</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
@@ -33142,6 +33200,9 @@
       </c>
       <c r="M13" t="s">
         <v>1941</v>
+      </c>
+      <c r="R13" t="s">
+        <v>6310</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E364F4B3-A398-4DC1-BF17-552735880E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933BC720-F1E3-42B9-9826-BA23A690605E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15210" yWindow="9675" windowWidth="9150" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8654" uniqueCount="6315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8659" uniqueCount="6320">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24842,6 +24842,26 @@
   </si>
   <si>
     <t>render</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>league</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>determine to do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>establish a club</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -32715,7 +32735,7 @@
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32953,6 +32973,9 @@
       <c r="R3" t="s">
         <v>5008</v>
       </c>
+      <c r="S3" t="s">
+        <v>6315</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -33000,6 +33023,9 @@
       <c r="R4" t="s">
         <v>6311</v>
       </c>
+      <c r="S4" t="s">
+        <v>6316</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -33038,6 +33064,9 @@
       <c r="R5" t="s">
         <v>6312</v>
       </c>
+      <c r="S5" t="s">
+        <v>6317</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
@@ -33064,6 +33093,9 @@
       <c r="R6" t="s">
         <v>914</v>
       </c>
+      <c r="S6" t="s">
+        <v>6318</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
@@ -33086,6 +33118,9 @@
       </c>
       <c r="R7" t="s">
         <v>2059</v>
+      </c>
+      <c r="S7" t="s">
+        <v>6319</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933BC720-F1E3-42B9-9826-BA23A690605E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC9A17-0F30-4EB9-9AC1-8D9188B60D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15210" yWindow="9675" windowWidth="9150" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
+    <workbookView xWindow="-18615" yWindow="9345" windowWidth="16995" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
   <sheets>
     <sheet name="计划表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8659" uniqueCount="6320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8720" uniqueCount="6356">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24862,6 +24862,150 @@
   </si>
   <si>
     <t>establish a club</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arithemetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in league with someone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of someone's league</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lead the league</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rend = to give</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rendition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predictor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Morse code is made up of dots and dashes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preprocess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prove-proved-proven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>computable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>computor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equivalently</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neural networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>competitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern recognition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>universe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>universal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaptive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A follow B = B followed by A = BA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitwise 按位, 逐位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytewise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infinate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transmit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -32735,7 +32879,7 @@
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32976,6 +33120,12 @@
       <c r="S3" t="s">
         <v>6315</v>
       </c>
+      <c r="T3" t="s">
+        <v>6329</v>
+      </c>
+      <c r="U3" t="s">
+        <v>6320</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -33026,6 +33176,12 @@
       <c r="S4" t="s">
         <v>6316</v>
       </c>
+      <c r="T4" t="s">
+        <v>5241</v>
+      </c>
+      <c r="U4" t="s">
+        <v>6316</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -33067,6 +33223,12 @@
       <c r="S5" t="s">
         <v>6317</v>
       </c>
+      <c r="T5" t="s">
+        <v>6330</v>
+      </c>
+      <c r="U5" t="s">
+        <v>6321</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
@@ -33096,6 +33258,12 @@
       <c r="S6" t="s">
         <v>6318</v>
       </c>
+      <c r="T6" t="s">
+        <v>6331</v>
+      </c>
+      <c r="U6" t="s">
+        <v>6322</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
@@ -33122,6 +33290,12 @@
       <c r="S7" t="s">
         <v>6319</v>
       </c>
+      <c r="T7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="U7" t="s">
+        <v>6323</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
@@ -33145,6 +33319,15 @@
       <c r="R8" t="s">
         <v>6313</v>
       </c>
+      <c r="S8" t="s">
+        <v>6347</v>
+      </c>
+      <c r="T8" t="s">
+        <v>6336</v>
+      </c>
+      <c r="U8" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
@@ -33168,6 +33351,15 @@
       <c r="R9" t="s">
         <v>1161</v>
       </c>
+      <c r="S9" t="s">
+        <v>6348</v>
+      </c>
+      <c r="T9" t="s">
+        <v>6301</v>
+      </c>
+      <c r="U9" t="s">
+        <v>6310</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
@@ -33191,6 +33383,15 @@
       <c r="R10" t="s">
         <v>2058</v>
       </c>
+      <c r="S10" t="s">
+        <v>6349</v>
+      </c>
+      <c r="T10" t="s">
+        <v>6337</v>
+      </c>
+      <c r="U10" t="s">
+        <v>6324</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
@@ -33211,6 +33412,15 @@
       <c r="R11" t="s">
         <v>6159</v>
       </c>
+      <c r="S11" t="s">
+        <v>4243</v>
+      </c>
+      <c r="T11" t="s">
+        <v>6338</v>
+      </c>
+      <c r="U11" t="s">
+        <v>6314</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
@@ -33225,6 +33435,15 @@
       <c r="R12" t="s">
         <v>6314</v>
       </c>
+      <c r="S12" t="s">
+        <v>6350</v>
+      </c>
+      <c r="T12" t="s">
+        <v>6339</v>
+      </c>
+      <c r="U12" t="s">
+        <v>3255</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
@@ -33239,6 +33458,15 @@
       <c r="R13" t="s">
         <v>6310</v>
       </c>
+      <c r="S13" t="s">
+        <v>3122</v>
+      </c>
+      <c r="T13" t="s">
+        <v>137</v>
+      </c>
+      <c r="U13" t="s">
+        <v>6325</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
@@ -33250,6 +33478,18 @@
       <c r="M14" t="s">
         <v>6028</v>
       </c>
+      <c r="R14" t="s">
+        <v>6354</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1862</v>
+      </c>
+      <c r="T14" t="s">
+        <v>6340</v>
+      </c>
+      <c r="U14" t="s">
+        <v>4859</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
@@ -33261,6 +33501,18 @@
       <c r="M15" t="s">
         <v>6044</v>
       </c>
+      <c r="R15" t="s">
+        <v>6165</v>
+      </c>
+      <c r="S15" t="s">
+        <v>2159</v>
+      </c>
+      <c r="T15" t="s">
+        <v>6341</v>
+      </c>
+      <c r="U15" t="s">
+        <v>6326</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
@@ -33269,35 +33521,110 @@
       <c r="K16" t="s">
         <v>6291</v>
       </c>
-    </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>411</v>
+      </c>
+      <c r="S16" t="s">
+        <v>2335</v>
+      </c>
+      <c r="T16" t="s">
+        <v>6342</v>
+      </c>
+      <c r="U16" t="s">
+        <v>6327</v>
+      </c>
+    </row>
+    <row r="17" spans="11:21" x14ac:dyDescent="0.2">
       <c r="K17" t="s">
         <v>6292</v>
       </c>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>6343</v>
+      </c>
+      <c r="S17" t="s">
+        <v>5187</v>
+      </c>
+      <c r="T17" t="s">
+        <v>6160</v>
+      </c>
+      <c r="U17" t="s">
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="18" spans="11:21" x14ac:dyDescent="0.2">
       <c r="K18" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>348</v>
+      </c>
+      <c r="S18" t="s">
+        <v>6351</v>
+      </c>
+      <c r="T18" t="s">
+        <v>6343</v>
+      </c>
+      <c r="U18" t="s">
+        <v>6355</v>
+      </c>
+    </row>
+    <row r="19" spans="11:21" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
         <v>6293</v>
       </c>
-    </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="R19" t="s">
+        <v>5187</v>
+      </c>
+      <c r="S19" t="s">
+        <v>6352</v>
+      </c>
+      <c r="T19" t="s">
+        <v>6344</v>
+      </c>
+      <c r="U19" t="s">
+        <v>6332</v>
+      </c>
+    </row>
+    <row r="20" spans="11:21" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
         <v>6294</v>
       </c>
-    </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="S20" t="s">
+        <v>6353</v>
+      </c>
+      <c r="T20" t="s">
+        <v>6345</v>
+      </c>
+      <c r="U20" t="s">
+        <v>6333</v>
+      </c>
+    </row>
+    <row r="21" spans="11:21" x14ac:dyDescent="0.2">
       <c r="K21" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="S21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="T21" t="s">
+        <v>6346</v>
+      </c>
+      <c r="U21" t="s">
+        <v>6334</v>
+      </c>
+    </row>
+    <row r="22" spans="11:21" x14ac:dyDescent="0.2">
       <c r="K22" t="s">
         <v>6295</v>
+      </c>
+      <c r="S22" t="s">
+        <v>438</v>
+      </c>
+      <c r="T22" t="s">
+        <v>348</v>
+      </c>
+      <c r="U22" t="s">
+        <v>6335</v>
       </c>
     </row>
   </sheetData>

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC9A17-0F30-4EB9-9AC1-8D9188B60D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66053FD5-D62C-479A-947C-7BB5D4467B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18615" yWindow="9345" windowWidth="16995" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8720" uniqueCount="6356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8729" uniqueCount="6356">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32878,8 +32878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9A5899-4439-43AE-BF77-0C4A54A1BB24}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33126,6 +33126,9 @@
       <c r="U3" t="s">
         <v>6320</v>
       </c>
+      <c r="V3" t="s">
+        <v>5187</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -33182,6 +33185,9 @@
       <c r="U4" t="s">
         <v>6316</v>
       </c>
+      <c r="V4" t="s">
+        <v>6308</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -33229,6 +33235,9 @@
       <c r="U5" t="s">
         <v>6321</v>
       </c>
+      <c r="V5" t="s">
+        <v>5465</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
@@ -33264,6 +33273,9 @@
       <c r="U6" t="s">
         <v>6322</v>
       </c>
+      <c r="V6" t="s">
+        <v>6301</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
@@ -33296,6 +33308,9 @@
       <c r="U7" t="s">
         <v>6323</v>
       </c>
+      <c r="V7" t="s">
+        <v>6303</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
@@ -33328,6 +33343,9 @@
       <c r="U8" t="s">
         <v>914</v>
       </c>
+      <c r="V8" t="s">
+        <v>1744</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
@@ -33360,6 +33378,9 @@
       <c r="U9" t="s">
         <v>6310</v>
       </c>
+      <c r="V9" t="s">
+        <v>6289</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
@@ -33392,6 +33413,9 @@
       <c r="U10" t="s">
         <v>6324</v>
       </c>
+      <c r="V10" t="s">
+        <v>6299</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
@@ -33420,6 +33444,9 @@
       </c>
       <c r="U11" t="s">
         <v>6314</v>
+      </c>
+      <c r="V11" t="s">
+        <v>3348</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66053FD5-D62C-479A-947C-7BB5D4467B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BEB85C-2AFE-478C-8F37-ED012B39DF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18615" yWindow="9345" windowWidth="16995" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
+    <workbookView xWindow="-18555" yWindow="9975" windowWidth="16995" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
   <sheets>
     <sheet name="计划表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8729" uniqueCount="6356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8759" uniqueCount="6362">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25006,6 +25006,30 @@
   </si>
   <si>
     <t>transmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foretell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prophesy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>political calculation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rational calculation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -31254,8 +31278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AAD495-8EA3-4C6F-869D-64FB66D50D2A}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A22"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3:AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32878,8 +32902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9A5899-4439-43AE-BF77-0C4A54A1BB24}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33129,6 +33153,15 @@
       <c r="V3" t="s">
         <v>5187</v>
       </c>
+      <c r="X3" t="s">
+        <v>6358</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>751</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>3893</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -33188,6 +33221,15 @@
       <c r="V4" t="s">
         <v>6308</v>
       </c>
+      <c r="X4" t="s">
+        <v>4296</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>3525</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>6226</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -33238,6 +33280,15 @@
       <c r="V5" t="s">
         <v>5465</v>
       </c>
+      <c r="X5" t="s">
+        <v>6359</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>4859</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>2571</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
@@ -33276,6 +33327,15 @@
       <c r="V6" t="s">
         <v>6301</v>
       </c>
+      <c r="X6" t="s">
+        <v>6360</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>6356</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>1841</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
@@ -33311,6 +33371,15 @@
       <c r="V7" t="s">
         <v>6303</v>
       </c>
+      <c r="X7" t="s">
+        <v>6361</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>6357</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>6122</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
@@ -33346,6 +33415,9 @@
       <c r="V8" t="s">
         <v>1744</v>
       </c>
+      <c r="AA8" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
@@ -33381,6 +33453,9 @@
       <c r="V9" t="s">
         <v>6289</v>
       </c>
+      <c r="AA9" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
@@ -33416,6 +33491,9 @@
       <c r="V10" t="s">
         <v>6299</v>
       </c>
+      <c r="AA10" t="s">
+        <v>6222</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
@@ -33448,6 +33526,9 @@
       <c r="V11" t="s">
         <v>3348</v>
       </c>
+      <c r="AA11" t="s">
+        <v>6207</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
@@ -33471,6 +33552,9 @@
       <c r="U12" t="s">
         <v>3255</v>
       </c>
+      <c r="AA12" t="s">
+        <v>6257</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
@@ -33494,6 +33578,9 @@
       <c r="U13" t="s">
         <v>6325</v>
       </c>
+      <c r="AA13" t="s">
+        <v>6258</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
@@ -33517,6 +33604,9 @@
       <c r="U14" t="s">
         <v>4859</v>
       </c>
+      <c r="AA14" t="s">
+        <v>6259</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
@@ -33540,6 +33630,9 @@
       <c r="U15" t="s">
         <v>6326</v>
       </c>
+      <c r="AA15" t="s">
+        <v>6260</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
@@ -33560,8 +33653,11 @@
       <c r="U16" t="s">
         <v>6327</v>
       </c>
-    </row>
-    <row r="17" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="AA16" t="s">
+        <v>6261</v>
+      </c>
+    </row>
+    <row r="17" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K17" t="s">
         <v>6292</v>
       </c>
@@ -33577,8 +33673,11 @@
       <c r="U17" t="s">
         <v>6328</v>
       </c>
-    </row>
-    <row r="18" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="AA17" t="s">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="18" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K18" t="s">
         <v>93</v>
       </c>
@@ -33594,8 +33693,11 @@
       <c r="U18" t="s">
         <v>6355</v>
       </c>
-    </row>
-    <row r="19" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="AA18" t="s">
+        <v>6263</v>
+      </c>
+    </row>
+    <row r="19" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
         <v>6293</v>
       </c>
@@ -33611,8 +33713,11 @@
       <c r="U19" t="s">
         <v>6332</v>
       </c>
-    </row>
-    <row r="20" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="AA19" t="s">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="20" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
         <v>6294</v>
       </c>
@@ -33625,8 +33730,11 @@
       <c r="U20" t="s">
         <v>6333</v>
       </c>
-    </row>
-    <row r="21" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="AA20" t="s">
+        <v>6265</v>
+      </c>
+    </row>
+    <row r="21" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K21" t="s">
         <v>618</v>
       </c>
@@ -33639,8 +33747,11 @@
       <c r="U21" t="s">
         <v>6334</v>
       </c>
-    </row>
-    <row r="22" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="AA21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K22" t="s">
         <v>6295</v>
       </c>
@@ -33652,6 +33763,9 @@
       </c>
       <c r="U22" t="s">
         <v>6335</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1569</v>
       </c>
     </row>
   </sheetData>

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BEB85C-2AFE-478C-8F37-ED012B39DF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452049E7-A303-45DB-8ECD-54E9405B1175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18555" yWindow="9975" windowWidth="16995" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8759" uniqueCount="6362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8769" uniqueCount="6369">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25030,6 +25030,33 @@
   </si>
   <si>
     <t>rational calculation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame grabber</t>
+  </si>
+  <si>
+    <t>retouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainstream</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -32903,7 +32930,7 @@
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10:T11"/>
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33159,6 +33186,9 @@
       <c r="Y3" t="s">
         <v>751</v>
       </c>
+      <c r="Z3" t="s">
+        <v>6081</v>
+      </c>
       <c r="AA3" t="s">
         <v>3893</v>
       </c>
@@ -33227,6 +33257,9 @@
       <c r="Y4" t="s">
         <v>3525</v>
       </c>
+      <c r="Z4" t="s">
+        <v>6362</v>
+      </c>
       <c r="AA4" t="s">
         <v>6226</v>
       </c>
@@ -33286,6 +33319,9 @@
       <c r="Y5" t="s">
         <v>4859</v>
       </c>
+      <c r="Z5" t="s">
+        <v>6363</v>
+      </c>
       <c r="AA5" t="s">
         <v>2571</v>
       </c>
@@ -33333,6 +33369,9 @@
       <c r="Y6" t="s">
         <v>6356</v>
       </c>
+      <c r="Z6" t="s">
+        <v>6364</v>
+      </c>
       <c r="AA6" t="s">
         <v>1841</v>
       </c>
@@ -33377,6 +33416,9 @@
       <c r="Y7" t="s">
         <v>6357</v>
       </c>
+      <c r="Z7" t="s">
+        <v>6365</v>
+      </c>
       <c r="AA7" t="s">
         <v>6122</v>
       </c>
@@ -33415,6 +33457,9 @@
       <c r="V8" t="s">
         <v>1744</v>
       </c>
+      <c r="Z8" t="s">
+        <v>6366</v>
+      </c>
       <c r="AA8" t="s">
         <v>370</v>
       </c>
@@ -33453,6 +33498,9 @@
       <c r="V9" t="s">
         <v>6289</v>
       </c>
+      <c r="Z9" t="s">
+        <v>6367</v>
+      </c>
       <c r="AA9" t="s">
         <v>353</v>
       </c>
@@ -33491,6 +33539,9 @@
       <c r="V10" t="s">
         <v>6299</v>
       </c>
+      <c r="Z10" t="s">
+        <v>6368</v>
+      </c>
       <c r="AA10" t="s">
         <v>6222</v>
       </c>
@@ -33526,6 +33577,9 @@
       <c r="V11" t="s">
         <v>3348</v>
       </c>
+      <c r="Z11" t="s">
+        <v>140</v>
+      </c>
       <c r="AA11" t="s">
         <v>6207</v>
       </c>
@@ -33551,6 +33605,9 @@
       </c>
       <c r="U12" t="s">
         <v>3255</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>358</v>
       </c>
       <c r="AA12" t="s">
         <v>6257</v>

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452049E7-A303-45DB-8ECD-54E9405B1175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36C137F-1EB8-447B-A183-F4902629DB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18555" yWindow="9975" windowWidth="16995" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8769" uniqueCount="6369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8772" uniqueCount="6372">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25057,6 +25057,18 @@
   </si>
   <si>
     <t>mainstream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistical encoders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decision tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range Coding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -32927,10 +32939,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9A5899-4439-43AE-BF77-0C4A54A1BB24}">
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33190,7 +33202,7 @@
         <v>6081</v>
       </c>
       <c r="AA3" t="s">
-        <v>3893</v>
+        <v>6369</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -33261,7 +33273,7 @@
         <v>6362</v>
       </c>
       <c r="AA4" t="s">
-        <v>6226</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -33323,7 +33335,7 @@
         <v>6363</v>
       </c>
       <c r="AA5" t="s">
-        <v>2571</v>
+        <v>6371</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -33372,9 +33384,6 @@
       <c r="Z6" t="s">
         <v>6364</v>
       </c>
-      <c r="AA6" t="s">
-        <v>1841</v>
-      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
@@ -33419,9 +33428,6 @@
       <c r="Z7" t="s">
         <v>6365</v>
       </c>
-      <c r="AA7" t="s">
-        <v>6122</v>
-      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
@@ -33460,9 +33466,6 @@
       <c r="Z8" t="s">
         <v>6366</v>
       </c>
-      <c r="AA8" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
@@ -33501,9 +33504,6 @@
       <c r="Z9" t="s">
         <v>6367</v>
       </c>
-      <c r="AA9" t="s">
-        <v>353</v>
-      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
@@ -33542,9 +33542,6 @@
       <c r="Z10" t="s">
         <v>6368</v>
       </c>
-      <c r="AA10" t="s">
-        <v>6222</v>
-      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
@@ -33580,9 +33577,6 @@
       <c r="Z11" t="s">
         <v>140</v>
       </c>
-      <c r="AA11" t="s">
-        <v>6207</v>
-      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
@@ -33609,9 +33603,6 @@
       <c r="Z12" t="s">
         <v>358</v>
       </c>
-      <c r="AA12" t="s">
-        <v>6257</v>
-      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
@@ -33635,9 +33626,6 @@
       <c r="U13" t="s">
         <v>6325</v>
       </c>
-      <c r="AA13" t="s">
-        <v>6258</v>
-      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
@@ -33661,9 +33649,6 @@
       <c r="U14" t="s">
         <v>4859</v>
       </c>
-      <c r="AA14" t="s">
-        <v>6259</v>
-      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
@@ -33687,9 +33672,6 @@
       <c r="U15" t="s">
         <v>6326</v>
       </c>
-      <c r="AA15" t="s">
-        <v>6260</v>
-      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
@@ -33710,11 +33692,8 @@
       <c r="U16" t="s">
         <v>6327</v>
       </c>
-      <c r="AA16" t="s">
-        <v>6261</v>
-      </c>
-    </row>
-    <row r="17" spans="11:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K17" t="s">
         <v>6292</v>
       </c>
@@ -33730,11 +33709,8 @@
       <c r="U17" t="s">
         <v>6328</v>
       </c>
-      <c r="AA17" t="s">
-        <v>6262</v>
-      </c>
-    </row>
-    <row r="18" spans="11:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K18" t="s">
         <v>93</v>
       </c>
@@ -33750,11 +33726,11 @@
       <c r="U18" t="s">
         <v>6355</v>
       </c>
-      <c r="AA18" t="s">
-        <v>6263</v>
-      </c>
-    </row>
-    <row r="19" spans="11:27" x14ac:dyDescent="0.2">
+      <c r="X18" t="s">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="19" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
         <v>6293</v>
       </c>
@@ -33770,11 +33746,11 @@
       <c r="U19" t="s">
         <v>6332</v>
       </c>
-      <c r="AA19" t="s">
-        <v>6264</v>
-      </c>
-    </row>
-    <row r="20" spans="11:27" x14ac:dyDescent="0.2">
+      <c r="X19" t="s">
+        <v>6226</v>
+      </c>
+    </row>
+    <row r="20" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
         <v>6294</v>
       </c>
@@ -33787,11 +33763,11 @@
       <c r="U20" t="s">
         <v>6333</v>
       </c>
-      <c r="AA20" t="s">
-        <v>6265</v>
-      </c>
-    </row>
-    <row r="21" spans="11:27" x14ac:dyDescent="0.2">
+      <c r="X20" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="21" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K21" t="s">
         <v>618</v>
       </c>
@@ -33804,11 +33780,11 @@
       <c r="U21" t="s">
         <v>6334</v>
       </c>
-      <c r="AA21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="11:27" x14ac:dyDescent="0.2">
+      <c r="X21" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="22" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K22" t="s">
         <v>6295</v>
       </c>
@@ -33821,7 +33797,82 @@
       <c r="U22" t="s">
         <v>6335</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="X22" t="s">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="23" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="X23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="X24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="X25" t="s">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="26" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="X26" t="s">
+        <v>6207</v>
+      </c>
+    </row>
+    <row r="27" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="X27" t="s">
+        <v>6257</v>
+      </c>
+    </row>
+    <row r="28" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="X28" t="s">
+        <v>6258</v>
+      </c>
+    </row>
+    <row r="29" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="X29" t="s">
+        <v>6259</v>
+      </c>
+    </row>
+    <row r="30" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="X30" t="s">
+        <v>6260</v>
+      </c>
+    </row>
+    <row r="31" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="X31" t="s">
+        <v>6261</v>
+      </c>
+    </row>
+    <row r="32" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="X32" t="s">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="33" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X33" t="s">
+        <v>6263</v>
+      </c>
+    </row>
+    <row r="34" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X34" t="s">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="35" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X35" t="s">
+        <v>6265</v>
+      </c>
+    </row>
+    <row r="36" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X37" t="s">
         <v>1569</v>
       </c>
     </row>

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36C137F-1EB8-447B-A183-F4902629DB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF0104-D8A5-482F-8A30-C15416039A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18555" yWindow="9975" windowWidth="16995" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8772" uniqueCount="6372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8807" uniqueCount="6397">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25070,6 +25070,105 @@
   <si>
     <t>Range Coding</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>measurable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relevant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrelevant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relevance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lev, liev = to raise, to lighten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elevate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elevator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alleviate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be made up of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brush one's teeth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wash/clean one's face</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">soon after I get up, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He shaves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shave his head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comb one's hair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pigtail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wear her hair in two pigtails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wear a beard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cosmetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wear / put on make-up化妆</t>
   </si>
 </sst>
 </file>
@@ -32939,10 +33038,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9A5899-4439-43AE-BF77-0C4A54A1BB24}">
-  <dimension ref="A1:AD37"/>
+  <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33204,6 +33303,9 @@
       <c r="AA3" t="s">
         <v>6369</v>
       </c>
+      <c r="AB3" t="s">
+        <v>5823</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -33275,6 +33377,9 @@
       <c r="AA4" t="s">
         <v>6370</v>
       </c>
+      <c r="AB4" t="s">
+        <v>6372</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -33337,6 +33442,9 @@
       <c r="AA5" t="s">
         <v>6371</v>
       </c>
+      <c r="AB5" t="s">
+        <v>6373</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
@@ -33384,6 +33492,12 @@
       <c r="Z6" t="s">
         <v>6364</v>
       </c>
+      <c r="AA6" t="s">
+        <v>6366</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>6374</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
@@ -33428,6 +33542,12 @@
       <c r="Z7" t="s">
         <v>6365</v>
       </c>
+      <c r="AA7" t="s">
+        <v>6368</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>6375</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
@@ -33463,8 +33583,17 @@
       <c r="V8" t="s">
         <v>1744</v>
       </c>
+      <c r="Y8" t="s">
+        <v>5187</v>
+      </c>
       <c r="Z8" t="s">
         <v>6366</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>6122</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>6376</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -33501,8 +33630,17 @@
       <c r="V9" t="s">
         <v>6289</v>
       </c>
+      <c r="Y9" t="s">
+        <v>5465</v>
+      </c>
       <c r="Z9" t="s">
         <v>6367</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>6377</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -33539,8 +33677,17 @@
       <c r="V10" t="s">
         <v>6299</v>
       </c>
+      <c r="Y10" t="s">
+        <v>6320</v>
+      </c>
       <c r="Z10" t="s">
         <v>6368</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>1841</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>6378</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -33574,8 +33721,17 @@
       <c r="V11" t="s">
         <v>3348</v>
       </c>
+      <c r="Y11" t="s">
+        <v>6328</v>
+      </c>
       <c r="Z11" t="s">
         <v>140</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>6263</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>6379</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -33600,8 +33756,17 @@
       <c r="U12" t="s">
         <v>3255</v>
       </c>
+      <c r="Y12" t="s">
+        <v>6393</v>
+      </c>
       <c r="Z12" t="s">
         <v>358</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>6261</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>6380</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -33626,6 +33791,18 @@
       <c r="U13" t="s">
         <v>6325</v>
       </c>
+      <c r="Y13" t="s">
+        <v>6394</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>6257</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>6262</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>6381</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
@@ -33649,6 +33826,18 @@
       <c r="U14" t="s">
         <v>4859</v>
       </c>
+      <c r="Y14" t="s">
+        <v>6395</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1744</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>6259</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>6382</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
@@ -33672,6 +33861,18 @@
       <c r="U15" t="s">
         <v>6326</v>
       </c>
+      <c r="Y15" t="s">
+        <v>6396</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>6303</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>6260</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>6203</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
@@ -33692,8 +33893,17 @@
       <c r="U16" t="s">
         <v>6327</v>
       </c>
-    </row>
-    <row r="17" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="Z16" t="s">
+        <v>6386</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>6383</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="17" spans="11:28" x14ac:dyDescent="0.2">
       <c r="K17" t="s">
         <v>6292</v>
       </c>
@@ -33709,8 +33919,17 @@
       <c r="U17" t="s">
         <v>6328</v>
       </c>
-    </row>
-    <row r="18" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="Z17" t="s">
+        <v>6387</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>6384</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="18" spans="11:28" x14ac:dyDescent="0.2">
       <c r="K18" t="s">
         <v>93</v>
       </c>
@@ -33726,11 +33945,17 @@
       <c r="U18" t="s">
         <v>6355</v>
       </c>
-      <c r="X18" t="s">
-        <v>3893</v>
-      </c>
-    </row>
-    <row r="19" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="Z18" t="s">
+        <v>6388</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>6348</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="19" spans="11:28" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
         <v>6293</v>
       </c>
@@ -33746,11 +33971,17 @@
       <c r="U19" t="s">
         <v>6332</v>
       </c>
-      <c r="X19" t="s">
-        <v>6226</v>
-      </c>
-    </row>
-    <row r="20" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="Z19" t="s">
+        <v>6389</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>3122</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>6081</v>
+      </c>
+    </row>
+    <row r="20" spans="11:28" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
         <v>6294</v>
       </c>
@@ -33763,11 +33994,17 @@
       <c r="U20" t="s">
         <v>6333</v>
       </c>
-      <c r="X20" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="21" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="Z20" t="s">
+        <v>6390</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>6362</v>
+      </c>
+    </row>
+    <row r="21" spans="11:28" x14ac:dyDescent="0.2">
       <c r="K21" t="s">
         <v>618</v>
       </c>
@@ -33780,11 +34017,17 @@
       <c r="U21" t="s">
         <v>6334</v>
       </c>
-      <c r="X21" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="22" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="Z21" t="s">
+        <v>6391</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>6165</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>6363</v>
+      </c>
+    </row>
+    <row r="22" spans="11:28" x14ac:dyDescent="0.2">
       <c r="K22" t="s">
         <v>6295</v>
       </c>
@@ -33797,83 +34040,14 @@
       <c r="U22" t="s">
         <v>6335</v>
       </c>
-      <c r="X22" t="s">
-        <v>6122</v>
-      </c>
-    </row>
-    <row r="23" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="X23" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="X24" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="25" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="X25" t="s">
-        <v>6222</v>
-      </c>
-    </row>
-    <row r="26" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="X26" t="s">
-        <v>6207</v>
-      </c>
-    </row>
-    <row r="27" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="X27" t="s">
-        <v>6257</v>
-      </c>
-    </row>
-    <row r="28" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="X28" t="s">
-        <v>6258</v>
-      </c>
-    </row>
-    <row r="29" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="X29" t="s">
-        <v>6259</v>
-      </c>
-    </row>
-    <row r="30" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="X30" t="s">
-        <v>6260</v>
-      </c>
-    </row>
-    <row r="31" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="X31" t="s">
-        <v>6261</v>
-      </c>
-    </row>
-    <row r="32" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="X32" t="s">
-        <v>6262</v>
-      </c>
-    </row>
-    <row r="33" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X33" t="s">
-        <v>6263</v>
-      </c>
-    </row>
-    <row r="34" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X34" t="s">
-        <v>6264</v>
-      </c>
-    </row>
-    <row r="35" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X35" t="s">
-        <v>6265</v>
-      </c>
-    </row>
-    <row r="36" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X37" t="s">
-        <v>1569</v>
+      <c r="Z22" t="s">
+        <v>6392</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>6385</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>6364</v>
       </c>
     </row>
   </sheetData>

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF0104-D8A5-482F-8A30-C15416039A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8927EA5-D368-4564-977B-F5D8D0FFF3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18555" yWindow="9975" windowWidth="16995" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8807" uniqueCount="6397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8830" uniqueCount="6408">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25169,6 +25169,50 @@
   </si>
   <si>
     <t>wear / put on make-up化妆</t>
+  </si>
+  <si>
+    <t>hard way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print working directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trailing newline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the trailling newline is stripped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>argument variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -33041,7 +33085,7 @@
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33306,6 +33350,9 @@
       <c r="AB3" t="s">
         <v>5823</v>
       </c>
+      <c r="AC3" t="s">
+        <v>3336</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -33380,6 +33427,9 @@
       <c r="AB4" t="s">
         <v>6372</v>
       </c>
+      <c r="AC4" t="s">
+        <v>3337</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -33445,6 +33495,9 @@
       <c r="AB5" t="s">
         <v>6373</v>
       </c>
+      <c r="AC5" t="s">
+        <v>6397</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
@@ -33498,6 +33551,9 @@
       <c r="AB6" t="s">
         <v>6374</v>
       </c>
+      <c r="AC6" t="s">
+        <v>6398</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
@@ -33548,6 +33604,9 @@
       <c r="AB7" t="s">
         <v>6375</v>
       </c>
+      <c r="AC7" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
@@ -33595,6 +33654,9 @@
       <c r="AB8" t="s">
         <v>6376</v>
       </c>
+      <c r="AC8" t="s">
+        <v>6399</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
@@ -33642,6 +33704,9 @@
       <c r="AB9" t="s">
         <v>6377</v>
       </c>
+      <c r="AC9" t="s">
+        <v>6400</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
@@ -33689,6 +33754,9 @@
       <c r="AB10" t="s">
         <v>6378</v>
       </c>
+      <c r="AC10" t="s">
+        <v>6401</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
@@ -33733,6 +33801,9 @@
       <c r="AB11" t="s">
         <v>6379</v>
       </c>
+      <c r="AC11" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
@@ -33768,6 +33839,9 @@
       <c r="AB12" t="s">
         <v>6380</v>
       </c>
+      <c r="AC12" t="s">
+        <v>5460</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
@@ -33803,6 +33877,9 @@
       <c r="AB13" t="s">
         <v>6381</v>
       </c>
+      <c r="AC13" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
@@ -33838,6 +33915,9 @@
       <c r="AB14" t="s">
         <v>6382</v>
       </c>
+      <c r="AC14" t="s">
+        <v>2954</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
@@ -33873,6 +33953,9 @@
       <c r="AB15" t="s">
         <v>6203</v>
       </c>
+      <c r="AC15" t="s">
+        <v>6402</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
@@ -33893,6 +33976,9 @@
       <c r="U16" t="s">
         <v>6327</v>
       </c>
+      <c r="Y16" t="s">
+        <v>6293</v>
+      </c>
       <c r="Z16" t="s">
         <v>6386</v>
       </c>
@@ -33902,8 +33988,11 @@
       <c r="AB16" t="s">
         <v>4330</v>
       </c>
-    </row>
-    <row r="17" spans="11:28" x14ac:dyDescent="0.2">
+      <c r="AC16" t="s">
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="17" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K17" t="s">
         <v>6292</v>
       </c>
@@ -33919,6 +34008,9 @@
       <c r="U17" t="s">
         <v>6328</v>
       </c>
+      <c r="Y17" t="s">
+        <v>1092</v>
+      </c>
       <c r="Z17" t="s">
         <v>6387</v>
       </c>
@@ -33928,8 +34020,11 @@
       <c r="AB17" t="s">
         <v>4469</v>
       </c>
-    </row>
-    <row r="18" spans="11:28" x14ac:dyDescent="0.2">
+      <c r="AC17" t="s">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="18" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K18" t="s">
         <v>93</v>
       </c>
@@ -33945,6 +34040,9 @@
       <c r="U18" t="s">
         <v>6355</v>
       </c>
+      <c r="Y18" t="s">
+        <v>3286</v>
+      </c>
       <c r="Z18" t="s">
         <v>6388</v>
       </c>
@@ -33954,8 +34052,11 @@
       <c r="AB18" t="s">
         <v>6222</v>
       </c>
-    </row>
-    <row r="19" spans="11:28" x14ac:dyDescent="0.2">
+      <c r="AC18" t="s">
+        <v>6405</v>
+      </c>
+    </row>
+    <row r="19" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
         <v>6293</v>
       </c>
@@ -33980,8 +34081,11 @@
       <c r="AB19" t="s">
         <v>6081</v>
       </c>
-    </row>
-    <row r="20" spans="11:28" x14ac:dyDescent="0.2">
+      <c r="AC19" t="s">
+        <v>6406</v>
+      </c>
+    </row>
+    <row r="20" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
         <v>6294</v>
       </c>
@@ -34003,8 +34107,11 @@
       <c r="AB20" t="s">
         <v>6362</v>
       </c>
-    </row>
-    <row r="21" spans="11:28" x14ac:dyDescent="0.2">
+      <c r="AC20" t="s">
+        <v>6407</v>
+      </c>
+    </row>
+    <row r="21" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K21" t="s">
         <v>618</v>
       </c>
@@ -34026,8 +34133,11 @@
       <c r="AB21" t="s">
         <v>6363</v>
       </c>
-    </row>
-    <row r="22" spans="11:28" x14ac:dyDescent="0.2">
+      <c r="AC21" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="22" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K22" t="s">
         <v>6295</v>
       </c>
@@ -34048,6 +34158,9 @@
       </c>
       <c r="AB22" t="s">
         <v>6364</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8927EA5-D368-4564-977B-F5D8D0FFF3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9FEC7F-6184-4C8E-B4C8-3D752AFF696F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18555" yWindow="9975" windowWidth="16995" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
+    <workbookView xWindow="-18555" yWindow="9975" windowWidth="16995" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
   <sheets>
     <sheet name="计划表" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="202108" sheetId="14" r:id="rId10"/>
     <sheet name="202109" sheetId="15" r:id="rId11"/>
     <sheet name="202110" sheetId="16" r:id="rId12"/>
+    <sheet name="202111" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8830" uniqueCount="6408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8870" uniqueCount="6446">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25212,6 +25213,130 @@
   </si>
   <si>
     <t>argument variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c307</t>
+  </si>
+  <si>
+    <t>c308</t>
+  </si>
+  <si>
+    <t>c309</t>
+  </si>
+  <si>
+    <t>c310</t>
+  </si>
+  <si>
+    <t>c311</t>
+  </si>
+  <si>
+    <t>c312</t>
+  </si>
+  <si>
+    <t>c313</t>
+  </si>
+  <si>
+    <t>c314</t>
+  </si>
+  <si>
+    <t>c315</t>
+  </si>
+  <si>
+    <t>c316</t>
+  </si>
+  <si>
+    <t>c317</t>
+  </si>
+  <si>
+    <t>c318</t>
+  </si>
+  <si>
+    <t>c319</t>
+  </si>
+  <si>
+    <t>c320</t>
+  </si>
+  <si>
+    <t>c321</t>
+  </si>
+  <si>
+    <t>c322</t>
+  </si>
+  <si>
+    <t>c323</t>
+  </si>
+  <si>
+    <t>c324</t>
+  </si>
+  <si>
+    <t>c325</t>
+  </si>
+  <si>
+    <t>c326</t>
+  </si>
+  <si>
+    <t>c327</t>
+  </si>
+  <si>
+    <t>c328</t>
+  </si>
+  <si>
+    <t>c329</t>
+  </si>
+  <si>
+    <t>c330</t>
+  </si>
+  <si>
+    <t>c331</t>
+  </si>
+  <si>
+    <t>c332</t>
+  </si>
+  <si>
+    <t>c333</t>
+  </si>
+  <si>
+    <t>c334</t>
+  </si>
+  <si>
+    <t>essence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mind-set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgotten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behind</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -33082,10 +33207,1107 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9A5899-4439-43AE-BF77-0C4A54A1BB24}">
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection sqref="A1:AD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>20211001</v>
+      </c>
+      <c r="B1">
+        <v>20211002</v>
+      </c>
+      <c r="C1">
+        <v>20211003</v>
+      </c>
+      <c r="D1">
+        <v>20211004</v>
+      </c>
+      <c r="E1">
+        <v>20211005</v>
+      </c>
+      <c r="F1">
+        <v>20211006</v>
+      </c>
+      <c r="G1">
+        <v>20211007</v>
+      </c>
+      <c r="H1">
+        <v>20211008</v>
+      </c>
+      <c r="I1">
+        <v>20211009</v>
+      </c>
+      <c r="J1">
+        <v>20211010</v>
+      </c>
+      <c r="K1">
+        <v>20211011</v>
+      </c>
+      <c r="L1">
+        <v>20211012</v>
+      </c>
+      <c r="M1">
+        <v>20211013</v>
+      </c>
+      <c r="N1">
+        <v>20211014</v>
+      </c>
+      <c r="O1">
+        <v>20211015</v>
+      </c>
+      <c r="P1">
+        <v>20211016</v>
+      </c>
+      <c r="Q1">
+        <v>20211017</v>
+      </c>
+      <c r="R1">
+        <v>20211018</v>
+      </c>
+      <c r="S1">
+        <v>20211019</v>
+      </c>
+      <c r="T1">
+        <v>20211020</v>
+      </c>
+      <c r="U1">
+        <v>20211021</v>
+      </c>
+      <c r="V1">
+        <v>20211022</v>
+      </c>
+      <c r="W1">
+        <v>20211023</v>
+      </c>
+      <c r="X1">
+        <v>20211024</v>
+      </c>
+      <c r="Y1">
+        <v>20211025</v>
+      </c>
+      <c r="Z1">
+        <v>20211026</v>
+      </c>
+      <c r="AA1">
+        <v>20211027</v>
+      </c>
+      <c r="AB1">
+        <v>20211028</v>
+      </c>
+      <c r="AC1">
+        <v>20211029</v>
+      </c>
+      <c r="AD1">
+        <v>20211030</v>
+      </c>
+      <c r="AE1">
+        <v>20211031</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6227</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6228</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6230</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6231</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6232</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6233</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6234</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6235</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6236</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6237</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6238</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6239</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6240</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6241</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6242</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6243</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6244</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6245</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6246</v>
+      </c>
+      <c r="U2" t="s">
+        <v>6247</v>
+      </c>
+      <c r="V2" t="s">
+        <v>6248</v>
+      </c>
+      <c r="W2" t="s">
+        <v>6249</v>
+      </c>
+      <c r="X2" t="s">
+        <v>6250</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>6251</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>6252</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>6253</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>6254</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>6255</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>6256</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>6408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6273</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6274</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6275</v>
+      </c>
+      <c r="F3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3548</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2121</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6277</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5889</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6301</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6306</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5008</v>
+      </c>
+      <c r="R3" t="s">
+        <v>5008</v>
+      </c>
+      <c r="S3" t="s">
+        <v>6315</v>
+      </c>
+      <c r="T3" t="s">
+        <v>6329</v>
+      </c>
+      <c r="U3" t="s">
+        <v>6320</v>
+      </c>
+      <c r="V3" t="s">
+        <v>5187</v>
+      </c>
+      <c r="X3" t="s">
+        <v>6358</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>751</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>6081</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>6369</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>5823</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6276</v>
+      </c>
+      <c r="B4" t="s">
+        <v>906</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6276</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6284</v>
+      </c>
+      <c r="E4" t="s">
+        <v>842</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4129</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5709</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6284</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6278</v>
+      </c>
+      <c r="J4" t="s">
+        <v>349</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6302</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6307</v>
+      </c>
+      <c r="P4" t="s">
+        <v>6159</v>
+      </c>
+      <c r="R4" t="s">
+        <v>6311</v>
+      </c>
+      <c r="S4" t="s">
+        <v>6316</v>
+      </c>
+      <c r="T4" t="s">
+        <v>5241</v>
+      </c>
+      <c r="U4" t="s">
+        <v>6316</v>
+      </c>
+      <c r="V4" t="s">
+        <v>6308</v>
+      </c>
+      <c r="X4" t="s">
+        <v>4296</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>3525</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>6362</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>6370</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>6372</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6301</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6303</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3223</v>
+      </c>
+      <c r="H5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6279</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6296</v>
+      </c>
+      <c r="K5" t="s">
+        <v>879</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6303</v>
+      </c>
+      <c r="M5" t="s">
+        <v>6308</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6314</v>
+      </c>
+      <c r="R5" t="s">
+        <v>6312</v>
+      </c>
+      <c r="S5" t="s">
+        <v>6317</v>
+      </c>
+      <c r="T5" t="s">
+        <v>6330</v>
+      </c>
+      <c r="U5" t="s">
+        <v>6321</v>
+      </c>
+      <c r="V5" t="s">
+        <v>5465</v>
+      </c>
+      <c r="X5" t="s">
+        <v>6359</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>4859</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>6363</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>6371</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>6373</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>6397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>6285</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6280</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6297</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L6" t="s">
+        <v>6304</v>
+      </c>
+      <c r="M6" t="s">
+        <v>5465</v>
+      </c>
+      <c r="P6" t="s">
+        <v>6310</v>
+      </c>
+      <c r="R6" t="s">
+        <v>914</v>
+      </c>
+      <c r="S6" t="s">
+        <v>6318</v>
+      </c>
+      <c r="T6" t="s">
+        <v>6331</v>
+      </c>
+      <c r="U6" t="s">
+        <v>6322</v>
+      </c>
+      <c r="V6" t="s">
+        <v>6301</v>
+      </c>
+      <c r="X6" t="s">
+        <v>6360</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>6356</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>6364</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>6366</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>6374</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>6398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>6286</v>
+      </c>
+      <c r="I7" t="s">
+        <v>842</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6298</v>
+      </c>
+      <c r="K7" t="s">
+        <v>6287</v>
+      </c>
+      <c r="L7" t="s">
+        <v>6305</v>
+      </c>
+      <c r="M7" t="s">
+        <v>6309</v>
+      </c>
+      <c r="R7" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S7" t="s">
+        <v>6319</v>
+      </c>
+      <c r="T7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="U7" t="s">
+        <v>6323</v>
+      </c>
+      <c r="V7" t="s">
+        <v>6303</v>
+      </c>
+      <c r="X7" t="s">
+        <v>6361</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>6357</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>6365</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>6368</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>6375</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>5041</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6281</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6299</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1744</v>
+      </c>
+      <c r="L8" t="s">
+        <v>362</v>
+      </c>
+      <c r="M8" t="s">
+        <v>6296</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6313</v>
+      </c>
+      <c r="S8" t="s">
+        <v>6347</v>
+      </c>
+      <c r="T8" t="s">
+        <v>6336</v>
+      </c>
+      <c r="U8" t="s">
+        <v>914</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1744</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>5187</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>6366</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>6122</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>6376</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>6399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>389</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6282</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3348</v>
+      </c>
+      <c r="K9" t="s">
+        <v>920</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4779</v>
+      </c>
+      <c r="M9" t="s">
+        <v>3571</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="S9" t="s">
+        <v>6348</v>
+      </c>
+      <c r="T9" t="s">
+        <v>6301</v>
+      </c>
+      <c r="U9" t="s">
+        <v>6310</v>
+      </c>
+      <c r="V9" t="s">
+        <v>6289</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>5465</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>6367</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>6377</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>2310</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4927</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6288</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4184</v>
+      </c>
+      <c r="M10" t="s">
+        <v>6310</v>
+      </c>
+      <c r="R10" t="s">
+        <v>2058</v>
+      </c>
+      <c r="S10" t="s">
+        <v>6349</v>
+      </c>
+      <c r="T10" t="s">
+        <v>6337</v>
+      </c>
+      <c r="U10" t="s">
+        <v>6324</v>
+      </c>
+      <c r="V10" t="s">
+        <v>6299</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>6320</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>6368</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>1841</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>6378</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>6401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>6283</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6300</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6289</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4185</v>
+      </c>
+      <c r="M11" t="s">
+        <v>385</v>
+      </c>
+      <c r="R11" t="s">
+        <v>6159</v>
+      </c>
+      <c r="S11" t="s">
+        <v>4243</v>
+      </c>
+      <c r="T11" t="s">
+        <v>6338</v>
+      </c>
+      <c r="U11" t="s">
+        <v>6314</v>
+      </c>
+      <c r="V11" t="s">
+        <v>3348</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>6328</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>6263</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>6379</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6290</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1940</v>
+      </c>
+      <c r="R12" t="s">
+        <v>6314</v>
+      </c>
+      <c r="S12" t="s">
+        <v>6350</v>
+      </c>
+      <c r="T12" t="s">
+        <v>6339</v>
+      </c>
+      <c r="U12" t="s">
+        <v>3255</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>6393</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>6261</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>6380</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>4129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1941</v>
+      </c>
+      <c r="R13" t="s">
+        <v>6310</v>
+      </c>
+      <c r="S13" t="s">
+        <v>3122</v>
+      </c>
+      <c r="T13" t="s">
+        <v>137</v>
+      </c>
+      <c r="U13" t="s">
+        <v>6325</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>6394</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>6257</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>6262</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>6381</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>5709</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="s">
+        <v>6028</v>
+      </c>
+      <c r="R14" t="s">
+        <v>6354</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1862</v>
+      </c>
+      <c r="T14" t="s">
+        <v>6340</v>
+      </c>
+      <c r="U14" t="s">
+        <v>4859</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>6395</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1744</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>6259</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>6382</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>3223</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3571</v>
+      </c>
+      <c r="M15" t="s">
+        <v>6044</v>
+      </c>
+      <c r="R15" t="s">
+        <v>6165</v>
+      </c>
+      <c r="S15" t="s">
+        <v>2159</v>
+      </c>
+      <c r="T15" t="s">
+        <v>6341</v>
+      </c>
+      <c r="U15" t="s">
+        <v>6326</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>6396</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>6303</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>6260</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>6203</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>6402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>2300</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6291</v>
+      </c>
+      <c r="R16" t="s">
+        <v>411</v>
+      </c>
+      <c r="S16" t="s">
+        <v>2335</v>
+      </c>
+      <c r="T16" t="s">
+        <v>6342</v>
+      </c>
+      <c r="U16" t="s">
+        <v>6327</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>6293</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>6386</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>6383</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>4330</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="17" spans="11:29" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>6292</v>
+      </c>
+      <c r="R17" t="s">
+        <v>6343</v>
+      </c>
+      <c r="S17" t="s">
+        <v>5187</v>
+      </c>
+      <c r="T17" t="s">
+        <v>6160</v>
+      </c>
+      <c r="U17" t="s">
+        <v>6328</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>6387</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>6384</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>4469</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="18" spans="11:29" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>93</v>
+      </c>
+      <c r="R18" t="s">
+        <v>348</v>
+      </c>
+      <c r="S18" t="s">
+        <v>6351</v>
+      </c>
+      <c r="T18" t="s">
+        <v>6343</v>
+      </c>
+      <c r="U18" t="s">
+        <v>6355</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>3286</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>6388</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>6348</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>6222</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>6405</v>
+      </c>
+    </row>
+    <row r="19" spans="11:29" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>6293</v>
+      </c>
+      <c r="R19" t="s">
+        <v>5187</v>
+      </c>
+      <c r="S19" t="s">
+        <v>6352</v>
+      </c>
+      <c r="T19" t="s">
+        <v>6344</v>
+      </c>
+      <c r="U19" t="s">
+        <v>6332</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>6389</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>3122</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>6081</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>6406</v>
+      </c>
+    </row>
+    <row r="20" spans="11:29" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>6294</v>
+      </c>
+      <c r="S20" t="s">
+        <v>6353</v>
+      </c>
+      <c r="T20" t="s">
+        <v>6345</v>
+      </c>
+      <c r="U20" t="s">
+        <v>6333</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>6390</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>6362</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>6407</v>
+      </c>
+    </row>
+    <row r="21" spans="11:29" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>618</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="T21" t="s">
+        <v>6346</v>
+      </c>
+      <c r="U21" t="s">
+        <v>6334</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>6391</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>6165</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>6363</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="22" spans="11:29" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>6295</v>
+      </c>
+      <c r="S22" t="s">
+        <v>438</v>
+      </c>
+      <c r="T22" t="s">
+        <v>348</v>
+      </c>
+      <c r="U22" t="s">
+        <v>6335</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>6392</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>6385</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>6364</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0171E0C5-2954-4A12-B2EC-1D6B9D13B8B0}">
+  <dimension ref="A1:AD11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33095,1078 +34317,236 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>20211001</v>
+        <v>20211101</v>
       </c>
       <c r="B1">
-        <v>20211002</v>
+        <v>20211102</v>
       </c>
       <c r="C1">
-        <v>20211003</v>
+        <v>20211103</v>
       </c>
       <c r="D1">
-        <v>20211004</v>
+        <v>20211104</v>
       </c>
       <c r="E1">
-        <v>20211005</v>
+        <v>20211105</v>
       </c>
       <c r="F1">
-        <v>20211006</v>
+        <v>20211106</v>
       </c>
       <c r="G1">
-        <v>20211007</v>
+        <v>20211107</v>
       </c>
       <c r="H1">
-        <v>20211008</v>
+        <v>20211108</v>
       </c>
       <c r="I1">
-        <v>20211009</v>
+        <v>20211109</v>
       </c>
       <c r="J1">
-        <v>20211010</v>
+        <v>20211110</v>
       </c>
       <c r="K1">
-        <v>20211011</v>
+        <v>20211111</v>
       </c>
       <c r="L1">
-        <v>20211012</v>
+        <v>20211112</v>
       </c>
       <c r="M1">
-        <v>20211013</v>
+        <v>20211113</v>
       </c>
       <c r="N1">
-        <v>20211014</v>
+        <v>20211114</v>
       </c>
       <c r="O1">
-        <v>20211015</v>
+        <v>20211115</v>
       </c>
       <c r="P1">
-        <v>20211016</v>
+        <v>20211116</v>
       </c>
       <c r="Q1">
-        <v>20211017</v>
+        <v>20211117</v>
       </c>
       <c r="R1">
-        <v>20211018</v>
+        <v>20211118</v>
       </c>
       <c r="S1">
-        <v>20211019</v>
+        <v>20211119</v>
       </c>
       <c r="T1">
-        <v>20211020</v>
+        <v>20211120</v>
       </c>
       <c r="U1">
-        <v>20211021</v>
+        <v>20211121</v>
       </c>
       <c r="V1">
-        <v>20211022</v>
+        <v>20211122</v>
       </c>
       <c r="W1">
-        <v>20211023</v>
+        <v>20211123</v>
       </c>
       <c r="X1">
-        <v>20211024</v>
+        <v>20211124</v>
       </c>
       <c r="Y1">
-        <v>20211025</v>
+        <v>20211125</v>
       </c>
       <c r="Z1">
-        <v>20211026</v>
+        <v>20211126</v>
       </c>
       <c r="AA1">
-        <v>20211027</v>
+        <v>20211127</v>
       </c>
       <c r="AB1">
-        <v>20211028</v>
+        <v>20211128</v>
       </c>
       <c r="AC1">
-        <v>20211029</v>
+        <v>20211129</v>
       </c>
       <c r="AD1">
-        <v>20211030</v>
+        <v>20211130</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6227</v>
+        <v>6409</v>
       </c>
       <c r="B2" t="s">
-        <v>6228</v>
+        <v>6410</v>
       </c>
       <c r="C2" t="s">
-        <v>6229</v>
+        <v>6411</v>
       </c>
       <c r="D2" t="s">
-        <v>6230</v>
+        <v>6412</v>
       </c>
       <c r="E2" t="s">
-        <v>6231</v>
+        <v>6413</v>
       </c>
       <c r="F2" t="s">
-        <v>6232</v>
+        <v>6414</v>
       </c>
       <c r="G2" t="s">
-        <v>6233</v>
+        <v>6415</v>
       </c>
       <c r="H2" t="s">
-        <v>6234</v>
+        <v>6416</v>
       </c>
       <c r="I2" t="s">
-        <v>6235</v>
+        <v>6417</v>
       </c>
       <c r="J2" t="s">
-        <v>6236</v>
+        <v>6418</v>
       </c>
       <c r="K2" t="s">
-        <v>6237</v>
+        <v>6419</v>
       </c>
       <c r="L2" t="s">
-        <v>6238</v>
+        <v>6420</v>
       </c>
       <c r="M2" t="s">
-        <v>6239</v>
+        <v>6421</v>
       </c>
       <c r="N2" t="s">
-        <v>6240</v>
+        <v>6422</v>
       </c>
       <c r="O2" t="s">
-        <v>6241</v>
+        <v>6423</v>
       </c>
       <c r="P2" t="s">
-        <v>6242</v>
+        <v>6424</v>
       </c>
       <c r="Q2" t="s">
-        <v>6243</v>
+        <v>6425</v>
       </c>
       <c r="R2" t="s">
-        <v>6244</v>
+        <v>6426</v>
       </c>
       <c r="S2" t="s">
-        <v>6245</v>
+        <v>6427</v>
       </c>
       <c r="T2" t="s">
-        <v>6246</v>
+        <v>6428</v>
       </c>
       <c r="U2" t="s">
-        <v>6247</v>
+        <v>6429</v>
       </c>
       <c r="V2" t="s">
-        <v>6248</v>
+        <v>6430</v>
       </c>
       <c r="W2" t="s">
-        <v>6249</v>
+        <v>6431</v>
       </c>
       <c r="X2" t="s">
-        <v>6250</v>
+        <v>6432</v>
       </c>
       <c r="Y2" t="s">
-        <v>6251</v>
+        <v>6433</v>
       </c>
       <c r="Z2" t="s">
-        <v>6252</v>
+        <v>6434</v>
       </c>
       <c r="AA2" t="s">
-        <v>6253</v>
+        <v>6435</v>
       </c>
       <c r="AB2" t="s">
-        <v>6254</v>
+        <v>6436</v>
       </c>
       <c r="AC2" t="s">
-        <v>6255</v>
+        <v>6437</v>
       </c>
       <c r="AD2" t="s">
-        <v>6256</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6273</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6274</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6275</v>
-      </c>
-      <c r="F3" t="s">
-        <v>481</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3548</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2121</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6277</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1720</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5889</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6301</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6306</v>
-      </c>
-      <c r="P3" t="s">
-        <v>5008</v>
-      </c>
-      <c r="R3" t="s">
-        <v>5008</v>
-      </c>
-      <c r="S3" t="s">
-        <v>6315</v>
-      </c>
-      <c r="T3" t="s">
-        <v>6329</v>
-      </c>
-      <c r="U3" t="s">
-        <v>6320</v>
-      </c>
-      <c r="V3" t="s">
-        <v>5187</v>
-      </c>
-      <c r="X3" t="s">
-        <v>6358</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>751</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>6081</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>6369</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>5823</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>3336</v>
+        <v>6439</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6276</v>
-      </c>
-      <c r="B4" t="s">
-        <v>906</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6276</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6284</v>
-      </c>
-      <c r="E4" t="s">
-        <v>842</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4129</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5709</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6284</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6278</v>
-      </c>
-      <c r="J4" t="s">
-        <v>349</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="L4" t="s">
-        <v>6302</v>
-      </c>
-      <c r="M4" t="s">
-        <v>6307</v>
-      </c>
-      <c r="P4" t="s">
-        <v>6159</v>
-      </c>
-      <c r="R4" t="s">
-        <v>6311</v>
-      </c>
-      <c r="S4" t="s">
-        <v>6316</v>
-      </c>
-      <c r="T4" t="s">
-        <v>5241</v>
-      </c>
-      <c r="U4" t="s">
-        <v>6316</v>
-      </c>
-      <c r="V4" t="s">
-        <v>6308</v>
-      </c>
-      <c r="X4" t="s">
-        <v>4296</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>3525</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>6362</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>6370</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>6372</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>3337</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6301</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6303</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1942</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3223</v>
-      </c>
-      <c r="H5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6279</v>
-      </c>
-      <c r="J5" t="s">
-        <v>6296</v>
-      </c>
-      <c r="K5" t="s">
-        <v>879</v>
-      </c>
-      <c r="L5" t="s">
-        <v>6303</v>
-      </c>
-      <c r="M5" t="s">
-        <v>6308</v>
-      </c>
-      <c r="P5" t="s">
-        <v>6314</v>
-      </c>
-      <c r="R5" t="s">
-        <v>6312</v>
-      </c>
-      <c r="S5" t="s">
-        <v>6317</v>
-      </c>
-      <c r="T5" t="s">
-        <v>6330</v>
-      </c>
-      <c r="U5" t="s">
-        <v>6321</v>
-      </c>
-      <c r="V5" t="s">
-        <v>5465</v>
-      </c>
-      <c r="X5" t="s">
-        <v>6359</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>4859</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>6363</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>6371</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>6373</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>6397</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="H6" t="s">
-        <v>6285</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6280</v>
-      </c>
-      <c r="J6" t="s">
-        <v>6297</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1569</v>
-      </c>
-      <c r="L6" t="s">
-        <v>6304</v>
-      </c>
-      <c r="M6" t="s">
-        <v>5465</v>
-      </c>
-      <c r="P6" t="s">
-        <v>6310</v>
-      </c>
-      <c r="R6" t="s">
-        <v>914</v>
-      </c>
-      <c r="S6" t="s">
-        <v>6318</v>
-      </c>
-      <c r="T6" t="s">
-        <v>6331</v>
-      </c>
-      <c r="U6" t="s">
-        <v>6322</v>
-      </c>
-      <c r="V6" t="s">
-        <v>6301</v>
-      </c>
-      <c r="X6" t="s">
-        <v>6360</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>6356</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>6364</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>6366</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>6374</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>6398</v>
+      <c r="A6" t="s">
+        <v>6441</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="H7" t="s">
-        <v>6286</v>
-      </c>
-      <c r="I7" t="s">
-        <v>842</v>
-      </c>
-      <c r="J7" t="s">
-        <v>6298</v>
-      </c>
-      <c r="K7" t="s">
-        <v>6287</v>
-      </c>
-      <c r="L7" t="s">
-        <v>6305</v>
-      </c>
-      <c r="M7" t="s">
-        <v>6309</v>
-      </c>
-      <c r="R7" t="s">
-        <v>2059</v>
-      </c>
-      <c r="S7" t="s">
-        <v>6319</v>
-      </c>
-      <c r="T7" t="s">
-        <v>1101</v>
-      </c>
-      <c r="U7" t="s">
-        <v>6323</v>
-      </c>
-      <c r="V7" t="s">
-        <v>6303</v>
-      </c>
-      <c r="X7" t="s">
-        <v>6361</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>6357</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>6365</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>6368</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>6375</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>147</v>
+      <c r="A7" t="s">
+        <v>6442</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="H8" t="s">
-        <v>5041</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6281</v>
-      </c>
-      <c r="J8" t="s">
-        <v>6299</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1744</v>
-      </c>
-      <c r="L8" t="s">
-        <v>362</v>
-      </c>
-      <c r="M8" t="s">
-        <v>6296</v>
-      </c>
-      <c r="R8" t="s">
-        <v>6313</v>
-      </c>
-      <c r="S8" t="s">
-        <v>6347</v>
-      </c>
-      <c r="T8" t="s">
-        <v>6336</v>
-      </c>
-      <c r="U8" t="s">
-        <v>914</v>
-      </c>
-      <c r="V8" t="s">
-        <v>1744</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>5187</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>6366</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>6122</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>6376</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>6399</v>
+      <c r="A8" t="s">
+        <v>6443</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="H9" t="s">
-        <v>389</v>
-      </c>
-      <c r="I9" t="s">
-        <v>6282</v>
-      </c>
-      <c r="J9" t="s">
-        <v>3348</v>
-      </c>
-      <c r="K9" t="s">
-        <v>920</v>
-      </c>
-      <c r="L9" t="s">
-        <v>4779</v>
-      </c>
-      <c r="M9" t="s">
-        <v>3571</v>
-      </c>
-      <c r="R9" t="s">
-        <v>1161</v>
-      </c>
-      <c r="S9" t="s">
-        <v>6348</v>
-      </c>
-      <c r="T9" t="s">
-        <v>6301</v>
-      </c>
-      <c r="U9" t="s">
-        <v>6310</v>
-      </c>
-      <c r="V9" t="s">
-        <v>6289</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>5465</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>6367</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>6377</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>6400</v>
+      <c r="A9" t="s">
+        <v>6444</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="H10" t="s">
-        <v>2310</v>
-      </c>
-      <c r="I10" t="s">
-        <v>4927</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1129</v>
-      </c>
-      <c r="K10" t="s">
-        <v>6288</v>
-      </c>
-      <c r="L10" t="s">
-        <v>4184</v>
-      </c>
-      <c r="M10" t="s">
-        <v>6310</v>
-      </c>
-      <c r="R10" t="s">
-        <v>2058</v>
-      </c>
-      <c r="S10" t="s">
-        <v>6349</v>
-      </c>
-      <c r="T10" t="s">
-        <v>6337</v>
-      </c>
-      <c r="U10" t="s">
-        <v>6324</v>
-      </c>
-      <c r="V10" t="s">
-        <v>6299</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>6320</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>6368</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>1841</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>6378</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>6401</v>
+      <c r="A10" t="s">
+        <v>4007</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="I11" t="s">
-        <v>6283</v>
-      </c>
-      <c r="J11" t="s">
-        <v>6300</v>
-      </c>
-      <c r="K11" t="s">
-        <v>6289</v>
-      </c>
-      <c r="L11" t="s">
-        <v>4185</v>
-      </c>
-      <c r="M11" t="s">
-        <v>385</v>
-      </c>
-      <c r="R11" t="s">
-        <v>6159</v>
-      </c>
-      <c r="S11" t="s">
-        <v>4243</v>
-      </c>
-      <c r="T11" t="s">
-        <v>6338</v>
-      </c>
-      <c r="U11" t="s">
-        <v>6314</v>
-      </c>
-      <c r="V11" t="s">
-        <v>3348</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>6328</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>6263</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>6379</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="I12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" t="s">
-        <v>6290</v>
-      </c>
-      <c r="M12" t="s">
-        <v>1940</v>
-      </c>
-      <c r="R12" t="s">
-        <v>6314</v>
-      </c>
-      <c r="S12" t="s">
-        <v>6350</v>
-      </c>
-      <c r="T12" t="s">
-        <v>6339</v>
-      </c>
-      <c r="U12" t="s">
-        <v>3255</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>6393</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>6261</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>6380</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>5460</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="I13" t="s">
-        <v>4129</v>
-      </c>
-      <c r="K13" t="s">
-        <v>1574</v>
-      </c>
-      <c r="M13" t="s">
-        <v>1941</v>
-      </c>
-      <c r="R13" t="s">
-        <v>6310</v>
-      </c>
-      <c r="S13" t="s">
-        <v>3122</v>
-      </c>
-      <c r="T13" t="s">
-        <v>137</v>
-      </c>
-      <c r="U13" t="s">
-        <v>6325</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>6394</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>6257</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>6262</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>6381</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="I14" t="s">
-        <v>5709</v>
-      </c>
-      <c r="K14" t="s">
-        <v>140</v>
-      </c>
-      <c r="M14" t="s">
-        <v>6028</v>
-      </c>
-      <c r="R14" t="s">
-        <v>6354</v>
-      </c>
-      <c r="S14" t="s">
-        <v>1862</v>
-      </c>
-      <c r="T14" t="s">
-        <v>6340</v>
-      </c>
-      <c r="U14" t="s">
-        <v>4859</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>6395</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>1744</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>6259</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>6382</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>2954</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="I15" t="s">
-        <v>3223</v>
-      </c>
-      <c r="K15" t="s">
-        <v>3571</v>
-      </c>
-      <c r="M15" t="s">
-        <v>6044</v>
-      </c>
-      <c r="R15" t="s">
-        <v>6165</v>
-      </c>
-      <c r="S15" t="s">
-        <v>2159</v>
-      </c>
-      <c r="T15" t="s">
-        <v>6341</v>
-      </c>
-      <c r="U15" t="s">
-        <v>6326</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>6396</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>6303</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>6260</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>6203</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>6402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="I16" t="s">
-        <v>2300</v>
-      </c>
-      <c r="K16" t="s">
-        <v>6291</v>
-      </c>
-      <c r="R16" t="s">
-        <v>411</v>
-      </c>
-      <c r="S16" t="s">
-        <v>2335</v>
-      </c>
-      <c r="T16" t="s">
-        <v>6342</v>
-      </c>
-      <c r="U16" t="s">
-        <v>6327</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>6293</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>6386</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>6383</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>4330</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>6403</v>
-      </c>
-    </row>
-    <row r="17" spans="11:29" x14ac:dyDescent="0.2">
-      <c r="K17" t="s">
-        <v>6292</v>
-      </c>
-      <c r="R17" t="s">
-        <v>6343</v>
-      </c>
-      <c r="S17" t="s">
-        <v>5187</v>
-      </c>
-      <c r="T17" t="s">
-        <v>6160</v>
-      </c>
-      <c r="U17" t="s">
-        <v>6328</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>1092</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>6387</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>6384</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>4469</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>6404</v>
-      </c>
-    </row>
-    <row r="18" spans="11:29" x14ac:dyDescent="0.2">
-      <c r="K18" t="s">
-        <v>93</v>
-      </c>
-      <c r="R18" t="s">
-        <v>348</v>
-      </c>
-      <c r="S18" t="s">
-        <v>6351</v>
-      </c>
-      <c r="T18" t="s">
-        <v>6343</v>
-      </c>
-      <c r="U18" t="s">
-        <v>6355</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>3286</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>6388</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>6348</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>6222</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>6405</v>
-      </c>
-    </row>
-    <row r="19" spans="11:29" x14ac:dyDescent="0.2">
-      <c r="K19" t="s">
-        <v>6293</v>
-      </c>
-      <c r="R19" t="s">
-        <v>5187</v>
-      </c>
-      <c r="S19" t="s">
-        <v>6352</v>
-      </c>
-      <c r="T19" t="s">
-        <v>6344</v>
-      </c>
-      <c r="U19" t="s">
-        <v>6332</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>6389</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>3122</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>6081</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>6406</v>
-      </c>
-    </row>
-    <row r="20" spans="11:29" x14ac:dyDescent="0.2">
-      <c r="K20" t="s">
-        <v>6294</v>
-      </c>
-      <c r="S20" t="s">
-        <v>6353</v>
-      </c>
-      <c r="T20" t="s">
-        <v>6345</v>
-      </c>
-      <c r="U20" t="s">
-        <v>6333</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>6390</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>6362</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>6407</v>
-      </c>
-    </row>
-    <row r="21" spans="11:29" x14ac:dyDescent="0.2">
-      <c r="K21" t="s">
-        <v>618</v>
-      </c>
-      <c r="S21" t="s">
-        <v>1095</v>
-      </c>
-      <c r="T21" t="s">
-        <v>6346</v>
-      </c>
-      <c r="U21" t="s">
-        <v>6334</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>6391</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>6165</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>6363</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="22" spans="11:29" x14ac:dyDescent="0.2">
-      <c r="K22" t="s">
-        <v>6295</v>
-      </c>
-      <c r="S22" t="s">
-        <v>438</v>
-      </c>
-      <c r="T22" t="s">
-        <v>348</v>
-      </c>
-      <c r="U22" t="s">
-        <v>6335</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>6392</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>6385</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>6364</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>85</v>
+      <c r="A11" t="s">
+        <v>6445</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9FEC7F-6184-4C8E-B4C8-3D752AFF696F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB730A6-EBDA-4E63-9375-1D005623059C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18555" yWindow="9975" windowWidth="16995" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8870" uniqueCount="6446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8880" uniqueCount="6452">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25337,6 +25337,30 @@
   </si>
   <si>
     <t>behind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Christmas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34304,10 +34328,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0171E0C5-2954-4A12-B2EC-1D6B9D13B8B0}">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34503,50 +34527,83 @@
       <c r="A3" t="s">
         <v>6439</v>
       </c>
+      <c r="C3" t="s">
+        <v>6446</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6440</v>
       </c>
+      <c r="C4" t="s">
+        <v>6447</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2048</v>
       </c>
+      <c r="C5" t="s">
+        <v>5427</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6441</v>
       </c>
+      <c r="C6" t="s">
+        <v>6448</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6442</v>
       </c>
+      <c r="C7" t="s">
+        <v>6449</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6443</v>
       </c>
+      <c r="C8" t="s">
+        <v>4697</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6444</v>
       </c>
+      <c r="C9" t="s">
+        <v>3247</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4007</v>
       </c>
+      <c r="C10" t="s">
+        <v>6450</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6445</v>
       </c>
+      <c r="C11" t="s">
+        <v>5439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>6451</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB730A6-EBDA-4E63-9375-1D005623059C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF67E60-3FE0-405B-9F06-4A42E1071C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18555" yWindow="9975" windowWidth="16995" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8880" uniqueCount="6452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8883" uniqueCount="6453">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25361,6 +25361,10 @@
   </si>
   <si>
     <t>upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreground</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34331,7 +34335,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34530,6 +34534,9 @@
       <c r="C3" t="s">
         <v>6446</v>
       </c>
+      <c r="D3" t="s">
+        <v>2491</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -34538,6 +34545,9 @@
       <c r="C4" t="s">
         <v>6447</v>
       </c>
+      <c r="D4" t="s">
+        <v>5009</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -34545,6 +34555,9 @@
       </c>
       <c r="C5" t="s">
         <v>5427</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6452</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF67E60-3FE0-405B-9F06-4A42E1071C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46AB565-E0ED-4CA3-A530-45929804D32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18555" yWindow="9975" windowWidth="16995" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8883" uniqueCount="6453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8889" uniqueCount="6454">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25365,6 +25365,10 @@
   </si>
   <si>
     <t>foreground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradient</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34335,7 +34339,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34537,6 +34541,9 @@
       <c r="D3" t="s">
         <v>2491</v>
       </c>
+      <c r="E3" t="s">
+        <v>3173</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -34548,6 +34555,9 @@
       <c r="D4" t="s">
         <v>5009</v>
       </c>
+      <c r="E4" t="s">
+        <v>3785</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -34559,6 +34569,9 @@
       <c r="D5" t="s">
         <v>6452</v>
       </c>
+      <c r="E5" t="s">
+        <v>1467</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -34567,6 +34580,9 @@
       <c r="C6" t="s">
         <v>6448</v>
       </c>
+      <c r="E6" t="s">
+        <v>6453</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -34575,6 +34591,9 @@
       <c r="C7" t="s">
         <v>6449</v>
       </c>
+      <c r="E7" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -34582,6 +34601,9 @@
       </c>
       <c r="C8" t="s">
         <v>4697</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5830</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46AB565-E0ED-4CA3-A530-45929804D32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA557F61-6E26-42EC-963A-C16AA6BA64C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18555" yWindow="9975" windowWidth="16995" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
+    <workbookView xWindow="-17475" yWindow="3165" windowWidth="16995" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
   <sheets>
     <sheet name="计划表" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8889" uniqueCount="6454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8906" uniqueCount="6462">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25369,6 +25369,38 @@
   </si>
   <si>
     <t>gradient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>journal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>journalist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>escape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How can we discern the trivial many from the vital few?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34336,10 +34368,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0171E0C5-2954-4A12-B2EC-1D6B9D13B8B0}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34544,6 +34576,9 @@
       <c r="E3" t="s">
         <v>3173</v>
       </c>
+      <c r="H3" t="s">
+        <v>6454</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -34558,6 +34593,9 @@
       <c r="E4" t="s">
         <v>3785</v>
       </c>
+      <c r="H4" t="s">
+        <v>5035</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -34572,6 +34610,9 @@
       <c r="E5" t="s">
         <v>1467</v>
       </c>
+      <c r="H5" t="s">
+        <v>6455</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -34583,6 +34624,9 @@
       <c r="E6" t="s">
         <v>6453</v>
       </c>
+      <c r="H6" t="s">
+        <v>6456</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -34594,6 +34638,9 @@
       <c r="E7" t="s">
         <v>1109</v>
       </c>
+      <c r="H7" t="s">
+        <v>6457</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -34605,6 +34652,9 @@
       <c r="E8" t="s">
         <v>5830</v>
       </c>
+      <c r="H8" t="s">
+        <v>6458</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -34613,6 +34663,9 @@
       <c r="C9" t="s">
         <v>3247</v>
       </c>
+      <c r="H9" t="s">
+        <v>6459</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -34621,6 +34674,9 @@
       <c r="C10" t="s">
         <v>6450</v>
       </c>
+      <c r="H10" t="s">
+        <v>6460</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -34629,10 +34685,51 @@
       <c r="C11" t="s">
         <v>5439</v>
       </c>
+      <c r="H11" t="s">
+        <v>5995</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>6451</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>6461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>6453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>6447</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>6309</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>6439</v>
       </c>
     </row>
   </sheetData>

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA557F61-6E26-42EC-963A-C16AA6BA64C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A211E7-3200-4F2A-9139-99A90381C62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17475" yWindow="3165" windowWidth="16995" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
+    <workbookView xWindow="-17520" yWindow="9375" windowWidth="16995" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
   <sheets>
     <sheet name="计划表" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8906" uniqueCount="6462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9039" uniqueCount="6490">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25401,6 +25401,118 @@
   </si>
   <si>
     <t>How can we discern the trivial many from the vital few?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extreme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>criterion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eliminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How can we cut out the trivial many?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go begging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clarify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thousand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graceful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>almost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bring forth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>essentialism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prophesy v.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prophecy n.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puesuit n.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pursue v.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undisciplined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the undisciplined pursuit of more</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>practically</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endowment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endowment effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -33273,8 +33385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9A5899-4439-43AE-BF77-0C4A54A1BB24}">
   <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection sqref="A1:AD2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34368,10 +34480,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0171E0C5-2954-4A12-B2EC-1D6B9D13B8B0}">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34576,8 +34688,17 @@
       <c r="E3" t="s">
         <v>3173</v>
       </c>
+      <c r="F3" t="s">
+        <v>6439</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6469</v>
+      </c>
       <c r="H3" t="s">
         <v>6454</v>
+      </c>
+      <c r="I3" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -34593,8 +34714,17 @@
       <c r="E4" t="s">
         <v>3785</v>
       </c>
+      <c r="F4" t="s">
+        <v>6483</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6470</v>
+      </c>
       <c r="H4" t="s">
         <v>5035</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2913</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -34610,8 +34740,17 @@
       <c r="E5" t="s">
         <v>1467</v>
       </c>
+      <c r="F5" t="s">
+        <v>6460</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6471</v>
+      </c>
       <c r="H5" t="s">
         <v>6455</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2456</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -34621,11 +34760,23 @@
       <c r="C6" t="s">
         <v>6448</v>
       </c>
+      <c r="D6" t="s">
+        <v>5830</v>
+      </c>
       <c r="E6" t="s">
         <v>6453</v>
       </c>
+      <c r="F6" t="s">
+        <v>6453</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6472</v>
+      </c>
       <c r="H6" t="s">
         <v>6456</v>
+      </c>
+      <c r="I6" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -34638,8 +34789,17 @@
       <c r="E7" t="s">
         <v>1109</v>
       </c>
+      <c r="F7" t="s">
+        <v>6447</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6473</v>
+      </c>
       <c r="H7" t="s">
         <v>6457</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6462</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -34652,8 +34812,17 @@
       <c r="E8" t="s">
         <v>5830</v>
       </c>
+      <c r="F8" t="s">
+        <v>6458</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1451</v>
+      </c>
       <c r="H8" t="s">
         <v>6458</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6463</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -34663,8 +34832,32 @@
       <c r="C9" t="s">
         <v>3247</v>
       </c>
+      <c r="E9" t="s">
+        <v>6364</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6459</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6474</v>
+      </c>
       <c r="H9" t="s">
         <v>6459</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4396</v>
+      </c>
+      <c r="N9" t="s">
+        <v>751</v>
+      </c>
+      <c r="O9" t="s">
+        <v>6081</v>
+      </c>
+      <c r="P9" t="s">
+        <v>6369</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>5823</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -34674,8 +34867,32 @@
       <c r="C10" t="s">
         <v>6450</v>
       </c>
+      <c r="E10" t="s">
+        <v>6378</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6399</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1174</v>
+      </c>
       <c r="H10" t="s">
         <v>6460</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6464</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3525</v>
+      </c>
+      <c r="O10" t="s">
+        <v>6362</v>
+      </c>
+      <c r="P10" t="s">
+        <v>6370</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6372</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -34685,51 +34902,363 @@
       <c r="C11" t="s">
         <v>5439</v>
       </c>
+      <c r="E11" t="s">
+        <v>6442</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6400</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3348</v>
+      </c>
       <c r="H11" t="s">
         <v>5995</v>
       </c>
+      <c r="I11" t="s">
+        <v>5995</v>
+      </c>
+      <c r="O11" t="s">
+        <v>6363</v>
+      </c>
+      <c r="P11" t="s">
+        <v>6371</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>6373</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1040</v>
+      </c>
       <c r="C12" t="s">
         <v>6451</v>
       </c>
+      <c r="E12" t="s">
+        <v>6443</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3890</v>
+      </c>
+      <c r="G12" t="s">
+        <v>612</v>
+      </c>
       <c r="H12" t="s">
         <v>1451</v>
       </c>
+      <c r="I12" t="s">
+        <v>6465</v>
+      </c>
+      <c r="N12" t="s">
+        <v>6356</v>
+      </c>
+      <c r="O12" t="s">
+        <v>6364</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6366</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>6374</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6489</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5460</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6475</v>
+      </c>
       <c r="H13" t="s">
         <v>6461</v>
       </c>
+      <c r="I13" t="s">
+        <v>6466</v>
+      </c>
+      <c r="N13" t="s">
+        <v>6357</v>
+      </c>
+      <c r="O13" t="s">
+        <v>6365</v>
+      </c>
+      <c r="P13" t="s">
+        <v>6368</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>6375</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>378</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5093</v>
+      </c>
       <c r="H14" t="s">
         <v>1109</v>
       </c>
+      <c r="I14" t="s">
+        <v>6328</v>
+      </c>
+      <c r="N14" t="s">
+        <v>5187</v>
+      </c>
+      <c r="O14" t="s">
+        <v>6366</v>
+      </c>
+      <c r="P14" t="s">
+        <v>6122</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>6376</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>6484</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5188</v>
+      </c>
       <c r="H15" t="s">
         <v>6453</v>
       </c>
+      <c r="I15" t="s">
+        <v>6381</v>
+      </c>
+      <c r="N15" t="s">
+        <v>5465</v>
+      </c>
+      <c r="O15" t="s">
+        <v>6367</v>
+      </c>
+      <c r="P15" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>6377</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>6485</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6476</v>
+      </c>
       <c r="H16" t="s">
         <v>6447</v>
       </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>3286</v>
+      </c>
+      <c r="N16" t="s">
+        <v>6320</v>
+      </c>
+      <c r="O16" t="s">
+        <v>6368</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="17" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>6486</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6477</v>
+      </c>
       <c r="H17" t="s">
         <v>5427</v>
       </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>6361</v>
+      </c>
+    </row>
+    <row r="18" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>6487</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6478</v>
+      </c>
       <c r="H18" t="s">
         <v>6309</v>
       </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>6358</v>
+      </c>
+      <c r="N18" t="s">
+        <v>6393</v>
+      </c>
+      <c r="O18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>6488</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6480</v>
+      </c>
       <c r="H19" t="s">
         <v>6439</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4296</v>
+      </c>
+      <c r="O19" t="s">
+        <v>6257</v>
+      </c>
+    </row>
+    <row r="20" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>6222</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6479</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6261</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3815</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1744</v>
+      </c>
+      <c r="P20" t="s">
+        <v>6259</v>
+      </c>
+      <c r="R20" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="21" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>6081</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6481</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6262</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6468</v>
+      </c>
+      <c r="N21" t="s">
+        <v>6396</v>
+      </c>
+      <c r="O21" t="s">
+        <v>6303</v>
+      </c>
+      <c r="P21" t="s">
+        <v>6260</v>
+      </c>
+      <c r="R21" t="s">
+        <v>6402</v>
+      </c>
+    </row>
+    <row r="22" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>6362</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6482</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6467</v>
+      </c>
+      <c r="I22" t="s">
+        <v>6395</v>
+      </c>
+      <c r="N22" t="s">
+        <v>6293</v>
+      </c>
+      <c r="O22" t="s">
+        <v>6386</v>
+      </c>
+      <c r="P22" t="s">
+        <v>6383</v>
+      </c>
+      <c r="R22" t="s">
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="23" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="N23" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O23" t="s">
+        <v>6387</v>
+      </c>
+      <c r="P23" t="s">
+        <v>6384</v>
+      </c>
+      <c r="R23" t="s">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="24" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>6388</v>
+      </c>
+      <c r="P24" t="s">
+        <v>6348</v>
+      </c>
+      <c r="R24" t="s">
+        <v>6405</v>
+      </c>
+    </row>
+    <row r="25" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="O25" t="s">
+        <v>6389</v>
+      </c>
+      <c r="P25" t="s">
+        <v>3122</v>
+      </c>
+      <c r="R25" t="s">
+        <v>6406</v>
+      </c>
+    </row>
+    <row r="26" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="O26" t="s">
+        <v>6390</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1095</v>
+      </c>
+      <c r="R26" t="s">
+        <v>6407</v>
+      </c>
+    </row>
+    <row r="27" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="O27" t="s">
+        <v>6391</v>
+      </c>
+      <c r="P27" t="s">
+        <v>6165</v>
+      </c>
+      <c r="R27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="28" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>6392</v>
+      </c>
+      <c r="P28" t="s">
+        <v>6385</v>
+      </c>
+      <c r="R28" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A211E7-3200-4F2A-9139-99A90381C62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6665E431-2F01-4492-87FC-6792C07DE8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17520" yWindow="9375" windowWidth="16995" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
+    <workbookView xWindow="-18465" yWindow="10005" windowWidth="16995" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
   <sheets>
     <sheet name="计划表" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9039" uniqueCount="6490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9054" uniqueCount="6501">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25513,6 +25513,50 @@
   </si>
   <si>
     <t>particle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miniprogram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Homebrew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camel Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elliptical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polygon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repulse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34483,7 +34527,7 @@
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34700,6 +34744,9 @@
       <c r="I3" t="s">
         <v>809</v>
       </c>
+      <c r="J3" t="s">
+        <v>6490</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -34726,6 +34773,9 @@
       <c r="I4" t="s">
         <v>2913</v>
       </c>
+      <c r="J4" t="s">
+        <v>6465</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -34752,6 +34802,9 @@
       <c r="I5" t="s">
         <v>2456</v>
       </c>
+      <c r="J5" t="s">
+        <v>6463</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -34778,6 +34831,9 @@
       <c r="I6" t="s">
         <v>356</v>
       </c>
+      <c r="J6" t="s">
+        <v>3525</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -34786,6 +34842,9 @@
       <c r="C7" t="s">
         <v>6449</v>
       </c>
+      <c r="D7" t="s">
+        <v>6498</v>
+      </c>
       <c r="E7" t="s">
         <v>1109</v>
       </c>
@@ -34800,6 +34859,9 @@
       </c>
       <c r="I7" t="s">
         <v>6462</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6366</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -34809,6 +34871,9 @@
       <c r="C8" t="s">
         <v>4697</v>
       </c>
+      <c r="D8" t="s">
+        <v>2650</v>
+      </c>
       <c r="E8" t="s">
         <v>5830</v>
       </c>
@@ -34823,6 +34888,9 @@
       </c>
       <c r="I8" t="s">
         <v>6463</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5031</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -34847,11 +34915,8 @@
       <c r="I9" t="s">
         <v>4396</v>
       </c>
-      <c r="N9" t="s">
-        <v>751</v>
-      </c>
-      <c r="O9" t="s">
-        <v>6081</v>
+      <c r="J9" t="s">
+        <v>6491</v>
       </c>
       <c r="P9" t="s">
         <v>6369</v>
@@ -34882,11 +34947,8 @@
       <c r="I10" t="s">
         <v>6464</v>
       </c>
-      <c r="N10" t="s">
-        <v>3525</v>
-      </c>
-      <c r="O10" t="s">
-        <v>6362</v>
+      <c r="J10" t="s">
+        <v>6492</v>
       </c>
       <c r="P10" t="s">
         <v>6370</v>
@@ -34917,8 +34979,8 @@
       <c r="I11" t="s">
         <v>5995</v>
       </c>
-      <c r="O11" t="s">
-        <v>6363</v>
+      <c r="J11" t="s">
+        <v>6493</v>
       </c>
       <c r="P11" t="s">
         <v>6371</v>
@@ -34949,11 +35011,8 @@
       <c r="I12" t="s">
         <v>6465</v>
       </c>
-      <c r="N12" t="s">
-        <v>6356</v>
-      </c>
-      <c r="O12" t="s">
-        <v>6364</v>
+      <c r="J12" t="s">
+        <v>6494</v>
       </c>
       <c r="P12" t="s">
         <v>6366</v>
@@ -34966,6 +35025,9 @@
       <c r="A13" t="s">
         <v>6489</v>
       </c>
+      <c r="E13" t="s">
+        <v>3618</v>
+      </c>
       <c r="F13" t="s">
         <v>5460</v>
       </c>
@@ -34978,11 +35040,8 @@
       <c r="I13" t="s">
         <v>6466</v>
       </c>
-      <c r="N13" t="s">
-        <v>6357</v>
-      </c>
-      <c r="O13" t="s">
-        <v>6365</v>
+      <c r="J13" t="s">
+        <v>85</v>
       </c>
       <c r="P13" t="s">
         <v>6368</v>
@@ -34992,6 +35051,9 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>6500</v>
+      </c>
       <c r="F14" t="s">
         <v>378</v>
       </c>
@@ -35004,12 +35066,12 @@
       <c r="I14" t="s">
         <v>6328</v>
       </c>
+      <c r="J14" t="s">
+        <v>6495</v>
+      </c>
       <c r="N14" t="s">
         <v>5187</v>
       </c>
-      <c r="O14" t="s">
-        <v>6366</v>
-      </c>
       <c r="P14" t="s">
         <v>6122</v>
       </c>
@@ -35018,6 +35080,9 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>5744</v>
+      </c>
       <c r="F15" t="s">
         <v>6484</v>
       </c>
@@ -35029,6 +35094,9 @@
       </c>
       <c r="I15" t="s">
         <v>6381</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5009</v>
       </c>
       <c r="N15" t="s">
         <v>5465</v>
@@ -35056,6 +35124,9 @@
       <c r="I16" t="s">
         <v>3286</v>
       </c>
+      <c r="J16" t="s">
+        <v>6496</v>
+      </c>
       <c r="N16" t="s">
         <v>6320</v>
       </c>
@@ -35079,6 +35150,9 @@
       <c r="I17" t="s">
         <v>6361</v>
       </c>
+      <c r="J17" t="s">
+        <v>6497</v>
+      </c>
     </row>
     <row r="18" spans="6:18" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
@@ -35093,6 +35167,9 @@
       <c r="I18" t="s">
         <v>6358</v>
       </c>
+      <c r="J18" t="s">
+        <v>1386</v>
+      </c>
       <c r="N18" t="s">
         <v>6393</v>
       </c>
@@ -35113,6 +35190,9 @@
       <c r="I19" t="s">
         <v>4296</v>
       </c>
+      <c r="J19" t="s">
+        <v>6063</v>
+      </c>
       <c r="O19" t="s">
         <v>6257</v>
       </c>
@@ -35130,6 +35210,9 @@
       <c r="I20" t="s">
         <v>3815</v>
       </c>
+      <c r="J20" t="s">
+        <v>6499</v>
+      </c>
       <c r="O20" t="s">
         <v>1744</v>
       </c>
@@ -35153,6 +35236,9 @@
       <c r="I21" t="s">
         <v>6468</v>
       </c>
+      <c r="J21" t="s">
+        <v>2913</v>
+      </c>
       <c r="N21" t="s">
         <v>6396</v>
       </c>
@@ -35178,6 +35264,9 @@
       </c>
       <c r="I22" t="s">
         <v>6395</v>
+      </c>
+      <c r="J22" t="s">
+        <v>809</v>
       </c>
       <c r="N22" t="s">
         <v>6293</v>

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6665E431-2F01-4492-87FC-6792C07DE8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660D06E4-2946-4955-8624-FBF82EE7785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18465" yWindow="10005" windowWidth="16995" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9054" uniqueCount="6501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9059" uniqueCount="6503">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25557,6 +25557,14 @@
   </si>
   <si>
     <t>repulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deploy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34527,7 +34535,7 @@
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34747,6 +34755,9 @@
       <c r="J3" t="s">
         <v>6490</v>
       </c>
+      <c r="K3" t="s">
+        <v>6393</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -34776,6 +34787,9 @@
       <c r="J4" t="s">
         <v>6465</v>
       </c>
+      <c r="K4" t="s">
+        <v>5187</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -34805,6 +34819,9 @@
       <c r="J5" t="s">
         <v>6463</v>
       </c>
+      <c r="K5" t="s">
+        <v>6501</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -34834,6 +34851,9 @@
       <c r="J6" t="s">
         <v>3525</v>
       </c>
+      <c r="K6" t="s">
+        <v>2513</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -34863,6 +34883,9 @@
       <c r="J7" t="s">
         <v>6366</v>
       </c>
+      <c r="K7" t="s">
+        <v>3511</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -34892,6 +34915,9 @@
       <c r="J8" t="s">
         <v>5031</v>
       </c>
+      <c r="K8" t="s">
+        <v>6502</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -34918,6 +34944,9 @@
       <c r="J9" t="s">
         <v>6491</v>
       </c>
+      <c r="K9" t="s">
+        <v>5894</v>
+      </c>
       <c r="P9" t="s">
         <v>6369</v>
       </c>
@@ -35069,9 +35098,6 @@
       <c r="J14" t="s">
         <v>6495</v>
       </c>
-      <c r="N14" t="s">
-        <v>5187</v>
-      </c>
       <c r="P14" t="s">
         <v>6122</v>
       </c>
@@ -35098,9 +35124,6 @@
       <c r="J15" t="s">
         <v>5009</v>
       </c>
-      <c r="N15" t="s">
-        <v>5465</v>
-      </c>
       <c r="O15" t="s">
         <v>6367</v>
       </c>
@@ -35112,6 +35135,9 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
       <c r="F16" t="s">
         <v>6485</v>
       </c>
@@ -35127,9 +35153,6 @@
       <c r="J16" t="s">
         <v>6496</v>
       </c>
-      <c r="N16" t="s">
-        <v>6320</v>
-      </c>
       <c r="O16" t="s">
         <v>6368</v>
       </c>
@@ -35137,7 +35160,10 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="17" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>5187</v>
+      </c>
       <c r="F17" t="s">
         <v>6486</v>
       </c>
@@ -35154,7 +35180,7 @@
         <v>6497</v>
       </c>
     </row>
-    <row r="18" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:18" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
         <v>6487</v>
       </c>
@@ -35170,14 +35196,11 @@
       <c r="J18" t="s">
         <v>1386</v>
       </c>
-      <c r="N18" t="s">
-        <v>6393</v>
-      </c>
       <c r="O18" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:18" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>6488</v>
       </c>
@@ -35197,7 +35220,7 @@
         <v>6257</v>
       </c>
     </row>
-    <row r="20" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:18" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>6222</v>
       </c>
@@ -35223,7 +35246,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="21" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:18" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
         <v>6081</v>
       </c>
@@ -35252,7 +35275,7 @@
         <v>6402</v>
       </c>
     </row>
-    <row r="22" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:18" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
         <v>6362</v>
       </c>
@@ -35281,7 +35304,7 @@
         <v>6403</v>
       </c>
     </row>
-    <row r="23" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:18" x14ac:dyDescent="0.2">
       <c r="N23" t="s">
         <v>1092</v>
       </c>
@@ -35295,7 +35318,7 @@
         <v>6404</v>
       </c>
     </row>
-    <row r="24" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:18" x14ac:dyDescent="0.2">
       <c r="O24" t="s">
         <v>6388</v>
       </c>
@@ -35306,7 +35329,7 @@
         <v>6405</v>
       </c>
     </row>
-    <row r="25" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:18" x14ac:dyDescent="0.2">
       <c r="O25" t="s">
         <v>6389</v>
       </c>
@@ -35317,7 +35340,7 @@
         <v>6406</v>
       </c>
     </row>
-    <row r="26" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:18" x14ac:dyDescent="0.2">
       <c r="O26" t="s">
         <v>6390</v>
       </c>
@@ -35328,7 +35351,7 @@
         <v>6407</v>
       </c>
     </row>
-    <row r="27" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:18" x14ac:dyDescent="0.2">
       <c r="O27" t="s">
         <v>6391</v>
       </c>
@@ -35339,7 +35362,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="28" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:18" x14ac:dyDescent="0.2">
       <c r="O28" t="s">
         <v>6392</v>
       </c>

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github.com\liws521\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660D06E4-2946-4955-8624-FBF82EE7785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46625F7-056B-4301-9EBB-D9C8DB6EE4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18465" yWindow="10005" windowWidth="16995" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
+    <workbookView xWindow="-19245" yWindow="10410" windowWidth="16995" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{9369CF50-62AF-4366-82DD-160E3ADC5B10}"/>
   </bookViews>
   <sheets>
     <sheet name="计划表" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9059" uniqueCount="6503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9068" uniqueCount="6508">
   <si>
     <t>boldfaced</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25565,6 +25565,26 @@
   </si>
   <si>
     <t>deploy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>italic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emphasize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superscript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34534,8 +34554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0171E0C5-2954-4A12-B2EC-1D6B9D13B8B0}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34758,6 +34778,9 @@
       <c r="K3" t="s">
         <v>6393</v>
       </c>
+      <c r="L3" t="s">
+        <v>6504</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -34790,6 +34813,9 @@
       <c r="K4" t="s">
         <v>5187</v>
       </c>
+      <c r="L4" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -34822,6 +34848,9 @@
       <c r="K5" t="s">
         <v>6501</v>
       </c>
+      <c r="L5" t="s">
+        <v>6505</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -34854,6 +34883,9 @@
       <c r="K6" t="s">
         <v>2513</v>
       </c>
+      <c r="L6" t="s">
+        <v>6506</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -34886,6 +34918,9 @@
       <c r="K7" t="s">
         <v>3511</v>
       </c>
+      <c r="L7" t="s">
+        <v>1403</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -34918,6 +34953,9 @@
       <c r="K8" t="s">
         <v>6502</v>
       </c>
+      <c r="L8" t="s">
+        <v>6507</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -34947,6 +34985,9 @@
       <c r="K9" t="s">
         <v>5894</v>
       </c>
+      <c r="L9" t="s">
+        <v>4178</v>
+      </c>
       <c r="P9" t="s">
         <v>6369</v>
       </c>
@@ -34979,6 +35020,12 @@
       <c r="J10" t="s">
         <v>6492</v>
       </c>
+      <c r="K10" t="s">
+        <v>6260</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1535</v>
+      </c>
       <c r="P10" t="s">
         <v>6370</v>
       </c>
@@ -35011,6 +35058,12 @@
       <c r="J11" t="s">
         <v>6493</v>
       </c>
+      <c r="K11" t="s">
+        <v>6503</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3606</v>
+      </c>
       <c r="P11" t="s">
         <v>6371</v>
       </c>
@@ -35124,9 +35177,6 @@
       <c r="J15" t="s">
         <v>5009</v>
       </c>
-      <c r="O15" t="s">
-        <v>6367</v>
-      </c>
       <c r="P15" t="s">
         <v>370</v>
       </c>
@@ -35152,9 +35202,6 @@
       </c>
       <c r="J16" t="s">
         <v>6496</v>
-      </c>
-      <c r="O16" t="s">
-        <v>6368</v>
       </c>
       <c r="P16" t="s">
         <v>1841</v>
